--- a/MobileRawData.xlsx
+++ b/MobileRawData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhkh\Desktop\Programming\Web_Foundation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D10D678-DE2A-4DAA-AB15-9A014EF047DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884817FE-0486-4A49-B30B-397419727F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="18775" windowHeight="10651" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="COURSE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
   <si>
     <t>CategoryID</t>
   </si>
@@ -172,13 +173,355 @@
   </si>
   <si>
     <t>COURSE_LECTURER</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/the-complete-javascript-course/</t>
+  </si>
+  <si>
+    <t>Jonas Schmedtmann</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/understand-javascript/</t>
+  </si>
+  <si>
+    <t>Anthony Alicea</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/modern-javascript-from-the-beginning/</t>
+  </si>
+  <si>
+    <t>Brad Traversy</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/javascript-the-complete-guide-2020-beginner-advanced/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/modern-javascript/</t>
+  </si>
+  <si>
+    <t>Andrew Mead</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/advanced-javascript-concepts/</t>
+  </si>
+  <si>
+    <t>Andrei Neagoie</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/javascript-beginners-complete-tutorial/</t>
+  </si>
+  <si>
+    <t>Colt Steele</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/react-the-complete-guide-incl-redux/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/react-redux/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/react-redux-tutorial/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/node-with-react-fullstack-web-development/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/react-2nd-edition/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/graphql-with-react-course/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/modern-react-bootcamp/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/design-and-develop-a-killer-website-with-html5-and-css3/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/advanced-css-and-sass/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/web-design-for-beginners-real-world-coding-in-html-css/</t>
+  </si>
+  <si>
+    <t>Brad Schiff</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/css-the-complete-guide-incl-flexbox-grid-sass/</t>
+  </si>
+  <si>
+    <t>Manuel Lorenz</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/modern-html-css-from-the-beginning/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/build-website-scratch/</t>
+  </si>
+  <si>
+    <t>Brad Hussey</t>
+  </si>
+  <si>
+    <t>Code College</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/course/50-projects-50-days/</t>
+  </si>
+  <si>
+    <t>Florin Pop</t>
+  </si>
+  <si>
+    <t>CourseImage</t>
+  </si>
+  <si>
+    <t>CourseName</t>
+  </si>
+  <si>
+    <t>ShortDes</t>
+  </si>
+  <si>
+    <t>StudentCount</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>SalePrice</t>
+  </si>
+  <si>
+    <t>UpdatedAt</t>
+  </si>
+  <si>
+    <t>SubCategoryID</t>
+  </si>
+  <si>
+    <t>COURSE</t>
+  </si>
+  <si>
+    <t>images/courses/1/main.jpg</t>
+  </si>
+  <si>
+    <t>images/courses/2/main.jpg</t>
+  </si>
+  <si>
+    <t>Flutter &amp; Dart - The Complete Guide [2020 Edition]</t>
+  </si>
+  <si>
+    <t>TotalRates</t>
+  </si>
+  <si>
+    <t>TotalVotes</t>
+  </si>
+  <si>
+    <t>RATING</t>
+  </si>
+  <si>
+    <t>FullDesID</t>
+  </si>
+  <si>
+    <t>FullDes</t>
+  </si>
+  <si>
+    <t>FULLDES</t>
+  </si>
+  <si>
+    <t>ContentID</t>
+  </si>
+  <si>
+    <t>ContentName</t>
+  </si>
+  <si>
+    <t>COURSE_CONTENT</t>
+  </si>
+  <si>
+    <t>LectureID</t>
+  </si>
+  <si>
+    <t>LectureName</t>
+  </si>
+  <si>
+    <t>Preview</t>
+  </si>
+  <si>
+    <t>LECTURE</t>
+  </si>
+  <si>
+    <t>A Complete Guide to the Flutter SDK &amp; Flutter Framework for building native iOS and Android apps</t>
+  </si>
+  <si>
+    <t>11/2020</t>
+  </si>
+  <si>
+    <t>Learn Flutter and Dart from the ground up, step-by-step</t>
+  </si>
+  <si>
+    <t>Build engaging native mobile apps for both Android and iOS</t>
+  </si>
+  <si>
+    <t>Use features like Google Maps, the device camera, authentication and much more!</t>
+  </si>
+  <si>
+    <t>Learn how to upload images and how to send manual and automated push notifications</t>
+  </si>
+  <si>
+    <t>Learn all the basics without stopping after them: Dive deeply into Flutter &amp; Dart and become an advanced developer</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Flutter Basics</t>
+  </si>
+  <si>
+    <t>Running Apps on Different Devices &amp; Debugging Apps</t>
+  </si>
+  <si>
+    <t>What is Flutter ?</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/learn-flutter-dart-to-build-ios-android-apps/what-is-flutter/</t>
+  </si>
+  <si>
+    <t>VideoLink</t>
+  </si>
+  <si>
+    <t>Flutter MacOS Setup</t>
+  </si>
+  <si>
+    <t>Flutter Windows Setup</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/learn-flutter-dart-to-build-ios-android-apps/flutter-macos-setup/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/learn-flutter-dart-to-build-ios-android-apps/flutter-windows-setup/</t>
+  </si>
+  <si>
+    <t>Module Introduction</t>
+  </si>
+  <si>
+    <t>Creating a new project</t>
+  </si>
+  <si>
+    <t>An Overview of the Generated Files &amp; Folders</t>
+  </si>
+  <si>
+    <t>Running the App on a Real Android Device</t>
+  </si>
+  <si>
+    <t>Running the App on an iOS Emulator</t>
+  </si>
+  <si>
+    <t>The Complete 2020 Flutter Development Bootcamp with Dart</t>
+  </si>
+  <si>
+    <t>Officially created in collaboration with the Google Flutter team.</t>
+  </si>
+  <si>
+    <t>12/2020</t>
+  </si>
+  <si>
+    <t>Build beautiful, fast and native-quality apps with Flutter</t>
+  </si>
+  <si>
+    <t>Become a fully-fledged Flutter developer</t>
+  </si>
+  <si>
+    <t>Build iOS and Android apps with just one codebase</t>
+  </si>
+  <si>
+    <t>Build iOS and Android apps using just one programming language (Dart)</t>
+  </si>
+  <si>
+    <t>Build a portfolio of beautiful Flutter apps to impress any recruiter</t>
+  </si>
+  <si>
+    <t>Understand all the fundamental concepts of Flutter development</t>
+  </si>
+  <si>
+    <t>Become proficient in one of the fastest growing technologies</t>
+  </si>
+  <si>
+    <t>Setup and Installation</t>
+  </si>
+  <si>
+    <t>How to create Flutter App from scratch</t>
+  </si>
+  <si>
+    <t>Why is Flutter ?</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/flutter-bootcamp-with-dart/what-is-flutter/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/flutter-bootcamp-with-dart/why-flutter/</t>
+  </si>
+  <si>
+    <t>Overview of the Process</t>
+  </si>
+  <si>
+    <t>Windows Setup Step 1 - Install the Flutter SDK</t>
+  </si>
+  <si>
+    <t>Windows Setup Step 2 - Install Android Studio</t>
+  </si>
+  <si>
+    <t>Windows Setup Step 3 - Install the Android Emulator</t>
+  </si>
+  <si>
+    <t>Windows Installation Troubleshooting</t>
+  </si>
+  <si>
+    <t>A Quick Note About macOS Catalina</t>
+  </si>
+  <si>
+    <t>Mac Setup Step 1 - Install the Flutter SDK</t>
+  </si>
+  <si>
+    <t>Mac Setup Step 2 - Install Android Studio</t>
+  </si>
+  <si>
+    <t>Mac Setup Step 3 - Install the Android Emulator</t>
+  </si>
+  <si>
+    <t>Mac Setup Step 4 - Install Xcode and Command Line Tools</t>
+  </si>
+  <si>
+    <t>Mac Setup Step 5 - Test the iOS Simulator</t>
+  </si>
+  <si>
+    <t>Mac Installation Troubleshooting</t>
+  </si>
+  <si>
+    <t>[Optional] Configure Android Studio for Flutter Development</t>
+  </si>
+  <si>
+    <t>[Optional] Guided Tour of Android Studio for Flutter Development</t>
+  </si>
+  <si>
+    <t>Creating a New Flutter Project from Scratch</t>
+  </si>
+  <si>
+    <t>A quick note about Hot Reload</t>
+  </si>
+  <si>
+    <t>Scaffolding a Flutter App</t>
+  </si>
+  <si>
+    <t>Working with Assets in Flutter &amp; the Pubspec file</t>
+  </si>
+  <si>
+    <t>How to Add App Icons to the iOS and Android Apps</t>
+  </si>
+  <si>
+    <t>How to Ace this Course</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +552,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -224,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -273,29 +640,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,29 +994,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:Q24"/>
+  <dimension ref="C2:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18:Q24"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="45.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.42578125" style="1" customWidth="1"/>
     <col min="12" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="97.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="10.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -609,458 +1030,876 @@
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="N2" s="2" t="s">
+      <c r="K2" s="7"/>
+      <c r="M2" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="N2" s="8"/>
       <c r="P2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" s="4">
+        <v>1</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>2</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>3</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>4</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <v>2</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>4</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>5</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>3</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>5</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>6</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <v>4</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>6</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>7</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>5</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>7</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>8</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>6</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>8</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>9</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="3">
         <v>7</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>9</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>10</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>8</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>10</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>11</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <v>8</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>11</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>12</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <v>8</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>12</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>13</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <v>9</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <v>13</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>14</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <v>9</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>14</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="P17" s="4">
+      <c r="M17" s="4">
+        <v>15</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="3">
         <v>9</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>15</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="4">
+      <c r="M18" s="4">
+        <v>16</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P18" s="3">
         <v>10</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="J19" s="6">
+      <c r="J19" s="4">
         <v>16</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P19" s="4">
+      <c r="M19" s="4">
+        <v>17</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="3">
         <v>10</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="P20" s="4">
+      <c r="J20" s="4">
+        <v>17</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="4">
+        <v>18</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="3">
         <v>11</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="P21" s="4">
+      <c r="J21" s="4">
+        <v>18</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="4">
+        <v>19</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" s="3">
         <v>12</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="P22" s="4">
+      <c r="J22" s="4">
+        <v>19</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" s="4">
+        <v>20</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="3">
         <v>13</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="P23" s="4">
+      <c r="J23" s="4">
+        <v>20</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="4">
+        <v>21</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="3">
         <v>13</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="10:17" x14ac:dyDescent="0.3">
-      <c r="P24" s="4">
+      <c r="J24" s="4">
+        <v>21</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="4">
+        <v>22</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" s="3">
         <v>14</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <v>16</v>
       </c>
     </row>
+    <row r="25" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J25" s="4">
+        <v>22</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="4">
+        <v>23</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J26" s="4">
+        <v>23</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M26" s="4">
+        <v>24</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="3">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J27" s="4">
+        <v>24</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M27" s="4">
+        <v>25</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="3">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J28" s="4">
+        <v>25</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M28" s="4">
+        <v>26</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J29" s="4">
+        <v>26</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" s="4">
+        <v>27</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="3">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="J30" s="4">
+        <v>27</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="4">
+        <v>28</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" s="3">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="M31" s="4">
+        <v>29</v>
+      </c>
+      <c r="N31" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17" x14ac:dyDescent="0.3">
+      <c r="M32" s="4">
+        <v>30</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" s="3">
+        <v>21</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M33" s="4">
+        <v>31</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="3">
+        <v>21</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M34" s="4">
+        <v>32</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M35" s="4">
+        <v>33</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" s="3">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M36" s="4">
+        <v>34</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" s="3">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="M37" s="4">
+        <v>35</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" s="3">
+        <v>24</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P38" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P39" s="3">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P40" s="3">
+        <v>27</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P41" s="3">
+        <v>28</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P42" s="3">
+        <v>29</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P43" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P44" s="3">
+        <v>31</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P45" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P46" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P47" s="3">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="P48" s="3">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P49" s="3">
+        <v>34</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P50" s="3">
+        <v>34</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P51" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="16:17" x14ac:dyDescent="0.3">
+      <c r="P52" s="3">
+        <v>35</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" display="https://www.udemy.com/user/academind/" xr:uid="{7FA9A059-72CF-4562-9C1B-680B174659C4}"/>
@@ -1079,8 +1918,1047 @@
     <hyperlink ref="K17" r:id="rId14" display="https://www.udemy.com/user/jeanpaulroberts/" xr:uid="{124034CC-396B-472A-AC5A-4400CD072164}"/>
     <hyperlink ref="K18" r:id="rId15" display="https://www.udemy.com/user/philipp-muellauer/" xr:uid="{CBCD0C3C-81D8-4A8B-8882-5A701BA94B7E}"/>
     <hyperlink ref="K19" r:id="rId16" display="https://www.udemy.com/user/morteza-kordi/" xr:uid="{0D1E9A0E-46C1-4341-BA1B-74E17C6B24C3}"/>
+    <hyperlink ref="K20" r:id="rId17" display="https://www.udemy.com/user/jonasschmedtmann/" xr:uid="{6B36CD9E-DF85-41F2-9F92-0335DB0A4278}"/>
+    <hyperlink ref="K21" r:id="rId18" display="https://www.udemy.com/user/anthonypalicea/" xr:uid="{B764B88B-619A-4450-A603-1C062FEB2E06}"/>
+    <hyperlink ref="K22" r:id="rId19" display="https://www.udemy.com/user/brad-traversy/" xr:uid="{165525E9-4C5E-4BB5-88F6-0E04415C9017}"/>
+    <hyperlink ref="K23" r:id="rId20" display="https://www.udemy.com/user/andrewmead/" xr:uid="{806F2FED-6ABC-4814-BCC3-7F5BB2412029}"/>
+    <hyperlink ref="K24" r:id="rId21" display="https://www.udemy.com/user/andrei-neagoie/" xr:uid="{F43CA84F-BD2E-40AF-8078-8D2FCF3E5346}"/>
+    <hyperlink ref="K25" r:id="rId22" display="https://www.udemy.com/user/coltsteele/" xr:uid="{D00A9CE4-384E-4EAD-A6DD-0B1B1A530A01}"/>
+    <hyperlink ref="K26" r:id="rId23" display="https://www.udemy.com/user/bradschiff/" xr:uid="{17F44576-429B-4FC1-821C-6609E884F944}"/>
+    <hyperlink ref="K27" r:id="rId24" display="https://www.udemy.com/user/manuel-lorenz/" xr:uid="{A5830011-B415-4CFD-ACF8-10187DF14B11}"/>
+    <hyperlink ref="K28" r:id="rId25" display="https://www.udemy.com/user/bradhussey/" xr:uid="{E45DA2F0-2577-46C6-A629-5D927B3B7887}"/>
+    <hyperlink ref="K29" r:id="rId26" display="https://www.udemy.com/user/codecollege/" xr:uid="{E3265E22-31C2-4809-A93A-D998786A90BE}"/>
+    <hyperlink ref="K30" r:id="rId27" display="https://www.udemy.com/user/popflorin/" xr:uid="{F3129DE4-8662-4936-B8C0-62B480C71A81}"/>
+    <hyperlink ref="N3" r:id="rId28" xr:uid="{DE99337B-C393-4C4E-B5F4-D5D509F97E6F}"/>
+    <hyperlink ref="N4" r:id="rId29" xr:uid="{0E23E2B2-99D3-4A5A-81A0-66CCF1981D82}"/>
+    <hyperlink ref="N5" r:id="rId30" xr:uid="{E7150414-5CC7-455F-AC6C-7B7D936003C1}"/>
+    <hyperlink ref="N6" r:id="rId31" xr:uid="{0B9EE62D-3030-4A5F-8059-1D46EF77F411}"/>
+    <hyperlink ref="N7" r:id="rId32" xr:uid="{C8DFE0D5-ADFD-48FA-88CE-47363D907C39}"/>
+    <hyperlink ref="N8" r:id="rId33" xr:uid="{57B9D548-6F8E-4187-86E2-3D0D76FE1AA5}"/>
+    <hyperlink ref="N10" r:id="rId34" xr:uid="{D330DCF8-14C0-4A40-9CF7-AB625407560F}"/>
+    <hyperlink ref="N11" r:id="rId35" xr:uid="{B282D39F-0F8D-4F59-BF0B-A61DF6C1268F}"/>
+    <hyperlink ref="N9" r:id="rId36" xr:uid="{293F41D2-7D48-4061-AAB9-1383704C9293}"/>
+    <hyperlink ref="N12" r:id="rId37" xr:uid="{F80AF151-271D-43B1-A202-CDADF9ECCA34}"/>
+    <hyperlink ref="N13" r:id="rId38" xr:uid="{BFF261EE-DE49-40CC-9FD6-602CF59EE599}"/>
+    <hyperlink ref="N14" r:id="rId39" xr:uid="{3022142F-1B53-4A9E-977F-B078FACE88CE}"/>
+    <hyperlink ref="N15" r:id="rId40" xr:uid="{6DCBB61B-9D34-4894-BD3F-9C096BAA6E65}"/>
+    <hyperlink ref="N16" r:id="rId41" xr:uid="{8D195680-8D06-4670-883B-AED4269E9C5B}"/>
+    <hyperlink ref="N17" r:id="rId42" xr:uid="{8B4989B6-4F94-4609-9ACD-69444792839C}"/>
+    <hyperlink ref="N18" r:id="rId43" xr:uid="{1CD776A2-B016-4EBF-B65E-181F53454CA2}"/>
+    <hyperlink ref="N19" r:id="rId44" xr:uid="{FA1D364D-B6F2-45EC-BC8A-3E3C4C6260E6}"/>
+    <hyperlink ref="N20" r:id="rId45" xr:uid="{087769BB-20E1-44C0-8704-5EBE488D9B11}"/>
+    <hyperlink ref="N21" r:id="rId46" xr:uid="{16D36156-5162-4E48-AA62-F2F0D7DB0D97}"/>
+    <hyperlink ref="N22" r:id="rId47" xr:uid="{3976DC24-FDD1-4613-8F17-8AE155CA8783}"/>
+    <hyperlink ref="N23" r:id="rId48" xr:uid="{73CDA833-BF0D-49B2-85DC-B195670ECC2A}"/>
+    <hyperlink ref="N25" r:id="rId49" xr:uid="{A6FF26AA-DD13-488D-ABAC-0EB17FC7B80E}"/>
+    <hyperlink ref="N27" r:id="rId50" xr:uid="{2AD61716-78C0-4DDF-8F09-924AE69D48CB}"/>
+    <hyperlink ref="N29" r:id="rId51" xr:uid="{10E53BD0-44B5-4F25-BC16-BB8CBEE7C887}"/>
+    <hyperlink ref="N31" r:id="rId52" xr:uid="{CBA4D28D-B4EE-461A-9061-1D717A3D13B7}"/>
+    <hyperlink ref="N33" r:id="rId53" xr:uid="{935F4A32-2BFA-490D-A019-CC624001C957}"/>
+    <hyperlink ref="N24" r:id="rId54" xr:uid="{03C83716-F6C8-4ABC-BA12-22CD6DC3D4EB}"/>
+    <hyperlink ref="N26" r:id="rId55" xr:uid="{BEBB662B-E563-420B-A84B-3A9947F26044}"/>
+    <hyperlink ref="N28" r:id="rId56" xr:uid="{93C36751-4C4C-4A10-858C-AF30F822C1BE}"/>
+    <hyperlink ref="N30" r:id="rId57" xr:uid="{0F94CB8E-4DB9-45DA-91C1-8B3E73B721B9}"/>
+    <hyperlink ref="N32" r:id="rId58" xr:uid="{C5759314-FEEF-42FD-AC94-25A3CE2CB922}"/>
+    <hyperlink ref="N34" r:id="rId59" xr:uid="{DED21AFE-95A4-4E3E-B355-166EB7C95EDA}"/>
+    <hyperlink ref="N35" r:id="rId60" xr:uid="{89B5A7D5-AD2B-4606-8DD6-E928163C5024}"/>
+    <hyperlink ref="N36" r:id="rId61" xr:uid="{E0A325BF-8FED-40C4-A042-6EFE34B09FAE}"/>
+    <hyperlink ref="N37" r:id="rId62" xr:uid="{6B18C5BC-236C-4EE6-AB9D-084C6B73F990}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId63"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D920D02-196A-4EDD-98D4-DB014EAEA577}">
+  <dimension ref="B2:AB38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="9" max="9" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="10"/>
+    <col min="12" max="12" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.140625" style="10"/>
+    <col min="20" max="20" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="10"/>
+    <col min="24" max="24" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="L2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="P2" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="T2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="X2" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+    </row>
+    <row r="3" spans="2:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="18">
+        <v>111900</v>
+      </c>
+      <c r="G4" s="18">
+        <v>3000000</v>
+      </c>
+      <c r="H4" s="18">
+        <v>300000</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <v>138667</v>
+      </c>
+      <c r="N4" s="18">
+        <v>30145</v>
+      </c>
+      <c r="P4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>1</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="17">
+        <v>1</v>
+      </c>
+      <c r="U4" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="V4" s="18">
+        <v>1</v>
+      </c>
+      <c r="X4" s="17">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z4" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="18">
+        <v>84899</v>
+      </c>
+      <c r="G5" s="18">
+        <v>3000000</v>
+      </c>
+      <c r="H5" s="18">
+        <v>300000</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17">
+        <v>2</v>
+      </c>
+      <c r="M5" s="18">
+        <v>25802</v>
+      </c>
+      <c r="N5" s="18">
+        <v>121270</v>
+      </c>
+      <c r="P5" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>1</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" s="17">
+        <v>2</v>
+      </c>
+      <c r="U5" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="V5" s="18">
+        <v>1</v>
+      </c>
+      <c r="X5" s="17">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z5" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+      <c r="J6" s="21">
+        <v>1</v>
+      </c>
+      <c r="P6" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="17">
+        <v>3</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" s="18">
+        <v>1</v>
+      </c>
+      <c r="X6" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="J7" s="21">
+        <v>1</v>
+      </c>
+      <c r="P7" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>1</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" s="17">
+        <v>4</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" s="18">
+        <v>2</v>
+      </c>
+      <c r="X7" s="17">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1</v>
+      </c>
+      <c r="P8" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>1</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="22">
+        <v>5</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="V8" s="18">
+        <v>2</v>
+      </c>
+      <c r="X8" s="17">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>6</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1</v>
+      </c>
+      <c r="P9" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>2</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="T9" s="17">
+        <v>6</v>
+      </c>
+      <c r="U9" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="V9" s="18">
+        <v>2</v>
+      </c>
+      <c r="X9" s="17">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>7</v>
+      </c>
+      <c r="J10" s="21">
+        <v>1</v>
+      </c>
+      <c r="P10" s="17">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>2</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="X10" s="17">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>8</v>
+      </c>
+      <c r="P11" s="17">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>2</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" s="17">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>9</v>
+      </c>
+      <c r="P12" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>2</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" s="17">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>10</v>
+      </c>
+      <c r="P13" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>2</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" s="17">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="AB13" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>11</v>
+      </c>
+      <c r="P14" s="17">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>2</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="X14" s="17">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB14" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>12</v>
+      </c>
+      <c r="P15" s="17">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>2</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="X15" s="17">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <v>13</v>
+      </c>
+      <c r="X16" s="17">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
+        <v>14</v>
+      </c>
+      <c r="X17" s="17">
+        <v>14</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <v>15</v>
+      </c>
+      <c r="X18" s="17">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
+        <v>16</v>
+      </c>
+      <c r="X19" s="17">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <v>17</v>
+      </c>
+      <c r="X20" s="17">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B21" s="13">
+        <v>18</v>
+      </c>
+      <c r="X21" s="17">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="13">
+        <v>19</v>
+      </c>
+      <c r="X22" s="17">
+        <v>19</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
+        <v>20</v>
+      </c>
+      <c r="X23" s="17">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="90" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
+        <v>21</v>
+      </c>
+      <c r="X24" s="17">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
+        <v>22</v>
+      </c>
+      <c r="X25" s="17">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
+        <v>23</v>
+      </c>
+      <c r="X26" s="17">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="B27" s="13">
+        <v>24</v>
+      </c>
+      <c r="X27" s="17">
+        <v>24</v>
+      </c>
+      <c r="Y27" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="105" x14ac:dyDescent="0.25">
+      <c r="B28" s="13">
+        <v>25</v>
+      </c>
+      <c r="X28" s="17">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z28" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
+        <v>26</v>
+      </c>
+      <c r="X29" s="17">
+        <v>26</v>
+      </c>
+      <c r="Y29" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
+        <v>27</v>
+      </c>
+      <c r="X30" s="17">
+        <v>27</v>
+      </c>
+      <c r="Y30" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z30" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="13">
+        <v>28</v>
+      </c>
+      <c r="X31" s="17">
+        <v>28</v>
+      </c>
+      <c r="Y31" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z31" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="60" x14ac:dyDescent="0.25">
+      <c r="B32" s="13">
+        <v>29</v>
+      </c>
+      <c r="X32" s="17">
+        <v>29</v>
+      </c>
+      <c r="Y32" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z32" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="B33" s="13">
+        <v>30</v>
+      </c>
+      <c r="X33" s="17">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="13">
+        <v>31</v>
+      </c>
+      <c r="X34" s="17">
+        <v>31</v>
+      </c>
+      <c r="Y34" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B35" s="13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B36" s="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B37" s="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B38" s="13">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="X2:AB2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="AA4" r:id="rId1" xr:uid="{1AE1B263-0BD4-4DB4-A826-E6E25D6CFFC3}"/>
+    <hyperlink ref="AA5" r:id="rId2" xr:uid="{CA6327CF-DE21-4C1E-A2B6-43B80AB62FB1}"/>
+    <hyperlink ref="AA6" r:id="rId3" xr:uid="{AA92E776-168A-4E42-BFFC-47436773BEFC}"/>
+    <hyperlink ref="AA13" r:id="rId4" xr:uid="{6771B219-73C0-4B53-80E3-090EC5985F3D}"/>
+    <hyperlink ref="AA14" r:id="rId5" xr:uid="{F4613435-F4C9-4F3A-A814-25922ACA8A11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/MobileRawData.xlsx
+++ b/MobileRawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhkh\Desktop\Programming\Web_Foundation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884817FE-0486-4A49-B30B-397419727F70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E7CAC-2175-4E4F-BF2F-5F41AEAF1415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="399">
   <si>
     <t>CategoryID</t>
   </si>
@@ -515,6 +515,714 @@
   </si>
   <si>
     <t>How to Ace this Course</t>
+  </si>
+  <si>
+    <t>Dart and Flutter: The Complete Developer's Guide</t>
+  </si>
+  <si>
+    <t>images/courses/3/main.jpg</t>
+  </si>
+  <si>
+    <t>images/courses/4/main.jpg</t>
+  </si>
+  <si>
+    <t>images/courses/6/main.jpg</t>
+  </si>
+  <si>
+    <t>images/courses/7/main.jpg</t>
+  </si>
+  <si>
+    <t>Everything you need to know for building mobile apps with Flutter and Dart, including RxDart and Animations!</t>
+  </si>
+  <si>
+    <t>Build beautiful multi-screen apps with Flutter</t>
+  </si>
+  <si>
+    <t>Understand the different approaches for loading and maintaining data in Flutter apps</t>
+  </si>
+  <si>
+    <t>Create and publish open source projects using Dart</t>
+  </si>
+  <si>
+    <t>Learn how to build offline-enabled apps with incredibly efficient data loading</t>
+  </si>
+  <si>
+    <t>Comprehend the best method for reading the incredible amount of Flutter documentation</t>
+  </si>
+  <si>
+    <t>Store long-term data on a user's physical device using SQLite</t>
+  </si>
+  <si>
+    <t>Master streams and understand reactive programming to create Flutter apps</t>
+  </si>
+  <si>
+    <t>Let's Dive In!</t>
+  </si>
+  <si>
+    <t>A Dart Introduction</t>
+  </si>
+  <si>
+    <t>Staing on Target with Dart</t>
+  </si>
+  <si>
+    <t>How to Get Help</t>
+  </si>
+  <si>
+    <t>Course Organization</t>
+  </si>
+  <si>
+    <t>Dart Overview</t>
+  </si>
+  <si>
+    <t>The Dartpad Editor</t>
+  </si>
+  <si>
+    <t>Our First program</t>
+  </si>
+  <si>
+    <t>For Loops</t>
+  </si>
+  <si>
+    <t>Adding Elements to Lists</t>
+  </si>
+  <si>
+    <t>More on Variable Initialization</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/dart-and-flutter-the-complete-developers-guide/adding-elements-to-lists/</t>
+  </si>
+  <si>
+    <t>Flutter &amp; Dart - The Complete Flutter App Development Course</t>
+  </si>
+  <si>
+    <t>Build Flutter iOS and Android Apps with a Single Codebase: Learn Google's Flutter Mobile Development Framework &amp; Dart</t>
+  </si>
+  <si>
+    <t>6/2020</t>
+  </si>
+  <si>
+    <t>Be ABLE to Build Any iOS and Android App You Want</t>
+  </si>
+  <si>
+    <t>MASTER Dart and Flutter Framework</t>
+  </si>
+  <si>
+    <t>BUILD Full-fledged Apps for Your Startup or Business</t>
+  </si>
+  <si>
+    <t>CREATE a Portfolio of Apps to Apply for Development Job</t>
+  </si>
+  <si>
+    <t>WORK as A Cross-Platform Mobile Developer Who can Develop iOS and Android Apps</t>
+  </si>
+  <si>
+    <t>GAIN a Competitive Advantage in the Workplace as a Flutter Mobile Developer</t>
+  </si>
+  <si>
+    <t>Getting Started</t>
+  </si>
+  <si>
+    <t>Why Flutter</t>
+  </si>
+  <si>
+    <t>The Learning Path of This Course</t>
+  </si>
+  <si>
+    <t>Why Flutter Development ?</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/flutter-dart-the-complete-flutter-app-development-course/why-flutter-development/</t>
+  </si>
+  <si>
+    <t>Important Message</t>
+  </si>
+  <si>
+    <t>Object Oriented Programming - Introduction</t>
+  </si>
+  <si>
+    <t>Introduction to Classes and Objects</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/flutter-dart-the-complete-flutter-app-development-course/introduction-to-classes-and-objects/</t>
+  </si>
+  <si>
+    <t>Introduction to Class Creation and Instance Variables</t>
+  </si>
+  <si>
+    <t>Adding Methods to Classes</t>
+  </si>
+  <si>
+    <t>Flutter &amp; Firebase: Build a Complete App for iOS &amp; Android</t>
+  </si>
+  <si>
+    <t>images/courses/5/main.png</t>
+  </si>
+  <si>
+    <t>Learn Dart, Flutter &amp; Firebase by Google, and build a real-world, production ready app</t>
+  </si>
+  <si>
+    <t>Build a complete, real-world app with Flutter &amp; Firebase</t>
+  </si>
+  <si>
+    <t>Write iOS &amp; Android apps with a single codebase</t>
+  </si>
+  <si>
+    <t>Write production-ready code following best practices and become a competent Flutter developer</t>
+  </si>
+  <si>
+    <t>Fast-track your Flutter learning with practical tips and proven techniques</t>
+  </si>
+  <si>
+    <t>Course Introduction</t>
+  </si>
+  <si>
+    <t>Introduction to Dart</t>
+  </si>
+  <si>
+    <t>Flutter setup on macOS</t>
+  </si>
+  <si>
+    <t>Course Content</t>
+  </si>
+  <si>
+    <t>App Overview</t>
+  </si>
+  <si>
+    <t>The Dart Language</t>
+  </si>
+  <si>
+    <t>Introduction to Dartpad</t>
+  </si>
+  <si>
+    <t>String interpolation</t>
+  </si>
+  <si>
+    <t>Setting the PATH variable</t>
+  </si>
+  <si>
+    <t>Flutter doctor</t>
+  </si>
+  <si>
+    <t>The Complete Flutter UI Masterclass | iOS, Android, &amp; Web</t>
+  </si>
+  <si>
+    <t>images/courses/8/main.jpg</t>
+  </si>
+  <si>
+    <t>Learn how to build beautiful and responsive iOS, Android, and Web user interfaces using Flutter and Dart!</t>
+  </si>
+  <si>
+    <t>Build beautiful mobile and web UI with Flutter and Dart</t>
+  </si>
+  <si>
+    <t>Learn how to implement basic and advanced Flutter widgets</t>
+  </si>
+  <si>
+    <t>Design and implement your own custom widgets</t>
+  </si>
+  <si>
+    <t>Visualize data with Flutter</t>
+  </si>
+  <si>
+    <t>Food Delivery App</t>
+  </si>
+  <si>
+    <t>Budget App</t>
+  </si>
+  <si>
+    <t>Search Bar</t>
+  </si>
+  <si>
+    <t>Recent Orders</t>
+  </si>
+  <si>
+    <t>Nearby Restaurant</t>
+  </si>
+  <si>
+    <t>Home Screen</t>
+  </si>
+  <si>
+    <t>Sliver App Bar and Sliver List</t>
+  </si>
+  <si>
+    <t>Bar Chart</t>
+  </si>
+  <si>
+    <t>Master Flutter - Learn Dart &amp; Flutter by Developing 5 Apps</t>
+  </si>
+  <si>
+    <t>images/courses/9/main.jpg</t>
+  </si>
+  <si>
+    <t>images/courses/10/main.jpg</t>
+  </si>
+  <si>
+    <t>images/courses/11/main.jpg</t>
+  </si>
+  <si>
+    <t>images/courses/12/main.jpg</t>
+  </si>
+  <si>
+    <t>images/courses/13/main.jpg</t>
+  </si>
+  <si>
+    <t>Learn Google Flutter &amp; Dart by Developing 5 Real Life &amp; Enterprise Apps including UI, App Dashboard and API</t>
+  </si>
+  <si>
+    <t>10/2020</t>
+  </si>
+  <si>
+    <t>Developing Android &amp; iOS apps using Dart &amp; Flutter</t>
+  </si>
+  <si>
+    <t>Design Professional Looking Apps</t>
+  </si>
+  <si>
+    <t>Design and Develop Enterprise Apps</t>
+  </si>
+  <si>
+    <t>Develop eCommerce &amp; Blog App, API &amp; App Dashboard - using Flutter &amp; Laravel &amp; MySQL, Sqflite, Shared preferences and Stripe</t>
+  </si>
+  <si>
+    <t>Develop News App, API &amp; App Dashboard - using Flutter &amp; NodeJS/ExpressJS &amp; MySQL and Realtime notification using Firebase Cloud Message</t>
+  </si>
+  <si>
+    <t>Develop a todo app using Dart, Flutter and Sqflite</t>
+  </si>
+  <si>
+    <t>Publish Apps at Play Store and App Store</t>
+  </si>
+  <si>
+    <t>Monetize Your App</t>
+  </si>
+  <si>
+    <t>Before you take this course</t>
+  </si>
+  <si>
+    <t>What is flutter for</t>
+  </si>
+  <si>
+    <t>Installation and configuration</t>
+  </si>
+  <si>
+    <t>Flutter - Welcome to my Universe</t>
+  </si>
+  <si>
+    <t>Installing the flutter sdk</t>
+  </si>
+  <si>
+    <t>Installing android studio</t>
+  </si>
+  <si>
+    <t>Setting up emulator</t>
+  </si>
+  <si>
+    <t>Create and run the application</t>
+  </si>
+  <si>
+    <t>Create and run the application using android studio</t>
+  </si>
+  <si>
+    <t>Writing from scratch</t>
+  </si>
+  <si>
+    <t>The Complete Android N Developer Course</t>
+  </si>
+  <si>
+    <t>Learn Android App Development with Android 7 Nougat by building real apps including Uber, Whatsapp and Instagram!</t>
+  </si>
+  <si>
+    <t>2/2019</t>
+  </si>
+  <si>
+    <t>Make pretty much any Android app you like (your only limit is your imagination)</t>
+  </si>
+  <si>
+    <t>Submit your apps to Google Play and generate revenue with Google Pay and Google Ads</t>
+  </si>
+  <si>
+    <t>Become a professional app developer, take freelance gigs and work from anywhere in the world</t>
+  </si>
+  <si>
+    <t>Bored with the same old, same old? Apply for a new job in a software company as an Android developer</t>
+  </si>
+  <si>
+    <t>What Does the Course Cover?</t>
+  </si>
+  <si>
+    <t>Introduction To Android Studio</t>
+  </si>
+  <si>
+    <t>Java Deep Dive</t>
+  </si>
+  <si>
+    <t>What does the course cover ?</t>
+  </si>
+  <si>
+    <t>How To Get All The Free Stuff</t>
+  </si>
+  <si>
+    <t>Frequently Asked Questions</t>
+  </si>
+  <si>
+    <t>Asking Great Questions &amp; Debugging Your Code</t>
+  </si>
+  <si>
+    <t>Installing Anndroid Studio On MacOS</t>
+  </si>
+  <si>
+    <t>Installing Anndroid Studio On Windows</t>
+  </si>
+  <si>
+    <t>Android Studio Overview</t>
+  </si>
+  <si>
+    <t>Opening Sample Projects</t>
+  </si>
+  <si>
+    <t>Opening Sample Projects (Android Studio files)</t>
+  </si>
+  <si>
+    <t>Formatting Text</t>
+  </si>
+  <si>
+    <t>Formatting Text (Android Studio files)</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Buttons (Android Studio files)</t>
+  </si>
+  <si>
+    <t>TextFields</t>
+  </si>
+  <si>
+    <t>TextFields (Android Studio files)</t>
+  </si>
+  <si>
+    <t>Displaying Messages</t>
+  </si>
+  <si>
+    <t>Displaying Messages (Android Studio files)</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Images (Android Studio files)</t>
+  </si>
+  <si>
+    <t>Currency Converter</t>
+  </si>
+  <si>
+    <t>Currency Converter (Android Studio files)</t>
+  </si>
+  <si>
+    <t>Introduction To Android Studio Quiz</t>
+  </si>
+  <si>
+    <t>Hello World With Java</t>
+  </si>
+  <si>
+    <t>Hello World With Java (Java files)</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Variables (Java files)</t>
+  </si>
+  <si>
+    <t>Arrays And Maps</t>
+  </si>
+  <si>
+    <t>Arrays And Maps (Java files)</t>
+  </si>
+  <si>
+    <t>If Statements</t>
+  </si>
+  <si>
+    <t>If Statements (Java Files)</t>
+  </si>
+  <si>
+    <t>The Complete Android Oreo Developer Course - Build 23 Apps!</t>
+  </si>
+  <si>
+    <t>Learn Android O App Development using Java &amp; Kotlin - build real apps including Super Mario Run, Whatsapp and Instagram!</t>
+  </si>
+  <si>
+    <t>Android Java Masterclass - Become an App Developer</t>
+  </si>
+  <si>
+    <t>Improve your career options by learning Android app Development. Master Android Studio and build your first app today</t>
+  </si>
+  <si>
+    <t>You’re taught step by step HOW to build Android 7 apps for Google’s Nougat platform that will work on older Android versions.</t>
+  </si>
+  <si>
+    <t>With each comprehensive step, the WHY you’re doing it is explained.</t>
+  </si>
+  <si>
+    <t>You’ll have EXPERT LEVEL knowledge of the Java programming language and know exactly how each process of Android Nougat development works.</t>
+  </si>
+  <si>
+    <t>The course is continually UPDATED, so you’ll learn the very latest as Android Nougat evolves.</t>
+  </si>
+  <si>
+    <t>NEW CONTENT is always being added, and you're covered with full lifetime access to the course.</t>
+  </si>
+  <si>
+    <t>SUPPORT is mind blowing – questions you have are answered that day.</t>
+  </si>
+  <si>
+    <t>The EXPERTISE to be an Android Nougat app developer as taught by the best.</t>
+  </si>
+  <si>
+    <t>The skills you’ll learn are in HIGH DEMAND. You’ve learned to program like an expert. Go get that job!</t>
+  </si>
+  <si>
+    <t>Downloading and Setup</t>
+  </si>
+  <si>
+    <t>Hello World Android app</t>
+  </si>
+  <si>
+    <t>Interface Overview</t>
+  </si>
+  <si>
+    <t>Introduction to Android</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>Windows - Install Android Studio</t>
+  </si>
+  <si>
+    <t>Mac - Install Android Studio</t>
+  </si>
+  <si>
+    <t>Linux - Install Android Studio</t>
+  </si>
+  <si>
+    <t>Hello World</t>
+  </si>
+  <si>
+    <t>Tour of Android Studio</t>
+  </si>
+  <si>
+    <t>Setting Up a Virtual Device</t>
+  </si>
+  <si>
+    <t>The Comprehensive Android Development Masterclass</t>
+  </si>
+  <si>
+    <t>images/courses/14/main.jpg</t>
+  </si>
+  <si>
+    <t>Master New Android API's like ROOM Database, ML Kit Face Recognition, Firestore, Firebase, Maps and Android Studio IDE</t>
+  </si>
+  <si>
+    <t>Master Java Programming Language</t>
+  </si>
+  <si>
+    <t>Build Dynamic Android Apps From Scratch</t>
+  </si>
+  <si>
+    <t>Master Android Development</t>
+  </si>
+  <si>
+    <t>Build Several Android Apps with the latest Android API's: ROOM, Firebase, Firestore and ML Kit Face Recognition</t>
+  </si>
+  <si>
+    <t>Learn Android Development Best Practices</t>
+  </si>
+  <si>
+    <t>Learn Android User Interface Design</t>
+  </si>
+  <si>
+    <t>Welcome</t>
+  </si>
+  <si>
+    <t>Install Android Studio on Windows Machine</t>
+  </si>
+  <si>
+    <t>Install Android Studio on Mac Machine</t>
+  </si>
+  <si>
+    <t>Learning Path</t>
+  </si>
+  <si>
+    <t>WINDOWS USERS ONLY] Download Android Studio for Windows</t>
+  </si>
+  <si>
+    <t>[OPTIONAL - WINDOWS USERS ONLY]VTX Emulator Issues Fixes on Windows</t>
+  </si>
+  <si>
+    <t>[MAC USERS ONLY] Download and Install Android Studio on MAC</t>
+  </si>
+  <si>
+    <t>Android O &amp; Java - The Complete Android Development Bootcamp</t>
+  </si>
+  <si>
+    <t>Learn Android O app development from beginning to end. Learn to code in Java while building fun Android O projects.</t>
+  </si>
+  <si>
+    <t>Build any Android app you want</t>
+  </si>
+  <si>
+    <t>You'll have a portfolio of apps to apply for jr. developer jobs</t>
+  </si>
+  <si>
+    <t>Build apps for your business</t>
+  </si>
+  <si>
+    <t>You'll be able to work as a freelance Android contractor</t>
+  </si>
+  <si>
+    <t>Set up for Android Development</t>
+  </si>
+  <si>
+    <t>Build the "I am Rich" App</t>
+  </si>
+  <si>
+    <t>Coding Challenge #1 - Using the layout editor in Android Studio and Github</t>
+  </si>
+  <si>
+    <t>Configure Android Studio for Productivity: Themes, Auto-Import &amp; SDKs</t>
+  </si>
+  <si>
+    <t>How to Set Up an Android Emulator with Hardware Acceleration</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/android-app-development-with-java/how-to-set-up-an-android-emulator-with-hardware-acceleration/</t>
+  </si>
+  <si>
+    <t>How to Get All the Free Stuff</t>
+  </si>
+  <si>
+    <t>Working with the Layout Editor, Strings, and App Themes</t>
+  </si>
+  <si>
+    <t>Adding Graphics to a Project and using ImageViews</t>
+  </si>
+  <si>
+    <t>What is XML and How Does it Work ?</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/android-app-development-with-java/what-is-xml-and-how-does-it-work/</t>
+  </si>
+  <si>
+    <t>What are the Coding Challenges?</t>
+  </si>
+  <si>
+    <t>What You Will Create</t>
+  </si>
+  <si>
+    <t>Step 1: Importing Projects from GitHub and Opening them in Android Studio ⭐️</t>
+  </si>
+  <si>
+    <t>Android App Development Masterclass using Kotlin</t>
+  </si>
+  <si>
+    <t>Learn Kotlin Android App Development And Become an Android Developer. Incl. Kotlin Tutorial and Android Tutorial Videos</t>
+  </si>
+  <si>
+    <t>Learn the core Android app development and Kotlin skills to build real Android apps.</t>
+  </si>
+  <si>
+    <t>Learn how to target current and older versions of Android when writing your apps.</t>
+  </si>
+  <si>
+    <t>Understand how to create Android apps using Kotlin.</t>
+  </si>
+  <si>
+    <t>Be able to apply for Android app development roles.</t>
+  </si>
+  <si>
+    <t>Introduction and Course Information</t>
+  </si>
+  <si>
+    <t>Downloading and Installing the Necessary Tools</t>
+  </si>
+  <si>
+    <t>Hello World Android App</t>
+  </si>
+  <si>
+    <t>The Udemy Interface</t>
+  </si>
+  <si>
+    <t>Introduction To Android</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/android-oreo-kotlin-app-masterclass/the-udemy-interface/</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/android-oreo-kotlin-app-masterclass/introduction-to-android/</t>
+  </si>
+  <si>
+    <t>Configure Android SDK on all Three Platforms</t>
+  </si>
+  <si>
+    <t>https://www.udemy.com/tutorial/android-oreo-kotlin-app-masterclass/configure-android-sdk-on-all-three-platforms/</t>
+  </si>
+  <si>
+    <t>Your Programming Careers Questions Answered</t>
+  </si>
+  <si>
+    <t>Access to Programming Career Q&amp;A</t>
+  </si>
+  <si>
+    <t>The Complete Android R + Java Developer Course™ : 2020</t>
+  </si>
+  <si>
+    <t>In this course, you'll learn Android Development and get to build your own Android R apps by using Java.</t>
+  </si>
+  <si>
+    <t>Apply for your dream job as an Android Developer</t>
+  </si>
+  <si>
+    <t>Build complex, production ready Java Android Applications</t>
+  </si>
+  <si>
+    <t>Build server based Android Applications with Paypal integration from scratch</t>
+  </si>
+  <si>
+    <t>Build a fantastic resume in order to show to employers</t>
+  </si>
+  <si>
+    <t>Welcome to Android R</t>
+  </si>
+  <si>
+    <t>Develop your first Android R App</t>
+  </si>
+  <si>
+    <t>Learn to Code in Java</t>
+  </si>
+  <si>
+    <t>What is a Programming Language</t>
+  </si>
+  <si>
+    <t>Lots of Programming Languages. Why?</t>
+  </si>
+  <si>
+    <t>What is Java?</t>
+  </si>
+  <si>
+    <t>Learning Objectives</t>
+  </si>
+  <si>
+    <t>Enter the world of android application development!</t>
+  </si>
+  <si>
+    <t>Download &amp; Install Android Studio</t>
+  </si>
+  <si>
+    <t>Take a look at Java Code!</t>
+  </si>
+  <si>
+    <t>Take a look at XML Code!</t>
   </si>
 </sst>
 </file>
@@ -591,7 +1299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -653,6 +1361,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -664,27 +1385,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -704,13 +1407,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -996,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1021,27 +1742,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="6" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="J2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="M2" s="8" t="s">
+      <c r="K2" s="19"/>
+      <c r="M2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="P2" s="5" t="s">
+      <c r="N2" s="20"/>
+      <c r="P2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="17"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
@@ -1068,7 +1789,7 @@
       <c r="M3" s="4">
         <v>1</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -1103,7 +1824,7 @@
       <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="3">
@@ -1138,7 +1859,7 @@
       <c r="M5" s="4">
         <v>3</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="3">
@@ -1167,7 +1888,7 @@
       <c r="M6" s="4">
         <v>4</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="P6" s="3">
@@ -1196,7 +1917,7 @@
       <c r="M7" s="4">
         <v>5</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="P7" s="3">
@@ -1225,7 +1946,7 @@
       <c r="M8" s="4">
         <v>6</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P8" s="3">
@@ -1245,7 +1966,7 @@
       <c r="M9" s="4">
         <v>7</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="5" t="s">
         <v>31</v>
       </c>
       <c r="P9" s="3">
@@ -1265,7 +1986,7 @@
       <c r="M10" s="4">
         <v>8</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="P10" s="3">
@@ -1285,7 +2006,7 @@
       <c r="M11" s="4">
         <v>9</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="N11" s="5" t="s">
         <v>38</v>
       </c>
       <c r="P11" s="3">
@@ -1305,7 +2026,7 @@
       <c r="M12" s="4">
         <v>10</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="P12" s="3">
@@ -1325,7 +2046,7 @@
       <c r="M13" s="4">
         <v>11</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="5" t="s">
         <v>42</v>
       </c>
       <c r="P13" s="3">
@@ -1345,7 +2066,7 @@
       <c r="M14" s="4">
         <v>12</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="5" t="s">
         <v>43</v>
       </c>
       <c r="P14" s="3">
@@ -1365,7 +2086,7 @@
       <c r="M15" s="4">
         <v>13</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="P15" s="3">
@@ -1385,7 +2106,7 @@
       <c r="M16" s="4">
         <v>14</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="P16" s="3">
@@ -1405,7 +2126,7 @@
       <c r="M17" s="4">
         <v>15</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="5" t="s">
         <v>49</v>
       </c>
       <c r="P17" s="3">
@@ -1425,7 +2146,7 @@
       <c r="M18" s="4">
         <v>16</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="P18" s="3">
@@ -1445,7 +2166,7 @@
       <c r="M19" s="4">
         <v>17</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="5" t="s">
         <v>53</v>
       </c>
       <c r="P19" s="3">
@@ -1465,7 +2186,7 @@
       <c r="M20" s="4">
         <v>18</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="5" t="s">
         <v>55</v>
       </c>
       <c r="P20" s="3">
@@ -1485,7 +2206,7 @@
       <c r="M21" s="4">
         <v>19</v>
       </c>
-      <c r="N21" s="9" t="s">
+      <c r="N21" s="5" t="s">
         <v>56</v>
       </c>
       <c r="P21" s="3">
@@ -1505,7 +2226,7 @@
       <c r="M22" s="4">
         <v>20</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="5" t="s">
         <v>58</v>
       </c>
       <c r="P22" s="3">
@@ -1525,7 +2246,7 @@
       <c r="M23" s="4">
         <v>21</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="5" t="s">
         <v>60</v>
       </c>
       <c r="P23" s="3">
@@ -1545,7 +2266,7 @@
       <c r="M24" s="4">
         <v>22</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="P24" s="3">
@@ -1565,7 +2286,7 @@
       <c r="M25" s="4">
         <v>23</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="5" t="s">
         <v>63</v>
       </c>
       <c r="P25" s="3">
@@ -1585,7 +2306,7 @@
       <c r="M26" s="4">
         <v>24</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="5" t="s">
         <v>64</v>
       </c>
       <c r="P26" s="3">
@@ -1605,7 +2326,7 @@
       <c r="M27" s="4">
         <v>25</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="5" t="s">
         <v>65</v>
       </c>
       <c r="P27" s="3">
@@ -1625,7 +2346,7 @@
       <c r="M28" s="4">
         <v>26</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="5" t="s">
         <v>66</v>
       </c>
       <c r="P28" s="3">
@@ -1645,7 +2366,7 @@
       <c r="M29" s="4">
         <v>27</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="5" t="s">
         <v>67</v>
       </c>
       <c r="P29" s="3">
@@ -1665,7 +2386,7 @@
       <c r="M30" s="4">
         <v>28</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="5" t="s">
         <v>68</v>
       </c>
       <c r="P30" s="3">
@@ -1679,7 +2400,7 @@
       <c r="M31" s="4">
         <v>29</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="5" t="s">
         <v>69</v>
       </c>
       <c r="P31" s="3">
@@ -1693,7 +2414,7 @@
       <c r="M32" s="4">
         <v>30</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="5" t="s">
         <v>70</v>
       </c>
       <c r="P32" s="3">
@@ -1707,7 +2428,7 @@
       <c r="M33" s="4">
         <v>31</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="5" t="s">
         <v>71</v>
       </c>
       <c r="P33" s="3">
@@ -1721,7 +2442,7 @@
       <c r="M34" s="4">
         <v>32</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="5" t="s">
         <v>73</v>
       </c>
       <c r="P34" s="3">
@@ -1735,7 +2456,7 @@
       <c r="M35" s="4">
         <v>33</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="5" t="s">
         <v>75</v>
       </c>
       <c r="P35" s="3">
@@ -1749,7 +2470,7 @@
       <c r="M36" s="4">
         <v>34</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="5" t="s">
         <v>76</v>
       </c>
       <c r="P36" s="3">
@@ -1763,7 +2484,7 @@
       <c r="M37" s="4">
         <v>35</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="N37" s="5" t="s">
         <v>79</v>
       </c>
       <c r="P37" s="3">
@@ -1972,975 +2693,4369 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D920D02-196A-4EDD-98D4-DB014EAEA577}">
-  <dimension ref="B2:AB38"/>
+  <dimension ref="B2:AB175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J5"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y173" sqref="Y173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="10"/>
-    <col min="9" max="9" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="10"/>
-    <col min="12" max="12" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="9.140625" style="10"/>
-    <col min="20" max="20" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="9.140625" style="10"/>
-    <col min="24" max="24" width="9.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" style="10" customWidth="1"/>
-    <col min="28" max="28" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="9" max="9" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="6"/>
+    <col min="12" max="12" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.140625" style="6"/>
+    <col min="20" max="20" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="9.140625" style="6"/>
+    <col min="24" max="24" width="9.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" style="6" customWidth="1"/>
+    <col min="28" max="28" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="L2" s="12" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="L2" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="P2" s="12" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="P2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="T2" s="12" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="T2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="X2" s="12" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="X2" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-    </row>
-    <row r="3" spans="2:28" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+    </row>
+    <row r="3" spans="2:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="Y3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Z3" s="14" t="s">
+      <c r="Z3" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AA3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AB3" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="2:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="12">
         <v>111900</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="12">
         <v>3000000</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="12">
         <v>300000</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="12">
         <v>1</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="11">
         <v>1</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="12">
         <v>138667</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="12">
         <v>30145</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="11">
         <v>1</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="12">
         <v>1</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="11">
         <v>1</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="12">
         <v>1</v>
       </c>
-      <c r="X4" s="17">
+      <c r="X4" s="11">
         <v>1</v>
       </c>
-      <c r="Y4" s="18" t="s">
+      <c r="Y4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Z4" s="18">
+      <c r="Z4" s="12">
         <v>1</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AB4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:28" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="12">
         <v>84899</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="12">
         <v>3000000</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="12">
         <v>300000</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="12">
         <v>1</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="11">
         <v>2</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="12">
+        <v>121270</v>
+      </c>
+      <c r="N5" s="12">
         <v>25802</v>
       </c>
-      <c r="N5" s="18">
-        <v>121270</v>
-      </c>
-      <c r="P5" s="17">
+      <c r="P5" s="11">
         <v>2</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="12">
         <v>1</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="11">
         <v>2</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="12">
         <v>1</v>
       </c>
-      <c r="X5" s="17">
+      <c r="X5" s="11">
         <v>2</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="Y5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="Z5" s="12">
         <v>1</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="AA5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="J6" s="21">
+      <c r="C6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="12">
+        <v>20074</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H6" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="12">
         <v>1</v>
       </c>
-      <c r="P6" s="17">
+      <c r="L6" s="11">
         <v>3</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="M6" s="12">
+        <v>17484</v>
+      </c>
+      <c r="N6" s="12">
+        <v>3720</v>
+      </c>
+      <c r="P6" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="12">
         <v>1</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="11">
         <v>3</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="12">
         <v>1</v>
       </c>
-      <c r="X6" s="17">
+      <c r="X6" s="11">
         <v>3</v>
       </c>
-      <c r="Y6" s="18" t="s">
+      <c r="Y6" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="Z6" s="12">
         <v>1</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AA6" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AB6" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="J7" s="21">
+      <c r="C7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="12">
+        <v>17851</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H7" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="12">
         <v>1</v>
       </c>
-      <c r="P7" s="17">
+      <c r="L7" s="11">
         <v>4</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="M7" s="12">
+        <v>17685</v>
+      </c>
+      <c r="N7" s="12">
+        <v>3930</v>
+      </c>
+      <c r="P7" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12">
         <v>1</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="11">
         <v>4</v>
       </c>
-      <c r="U7" s="18" t="s">
+      <c r="U7" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="12">
         <v>2</v>
       </c>
-      <c r="X7" s="17">
+      <c r="X7" s="11">
         <v>4</v>
       </c>
-      <c r="Y7" s="18" t="s">
+      <c r="Y7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18">
+      <c r="Z7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="J8" s="21">
+      <c r="C8" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" s="12">
+        <v>7642</v>
+      </c>
+      <c r="G8" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H8" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J8" s="12">
         <v>1</v>
       </c>
-      <c r="P8" s="17">
+      <c r="L8" s="11">
         <v>5</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="M8" s="12">
+        <v>8818</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1917</v>
+      </c>
+      <c r="P8" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="12">
         <v>1</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="15">
         <v>5</v>
       </c>
-      <c r="U8" s="18" t="s">
+      <c r="U8" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="12">
         <v>2</v>
       </c>
-      <c r="X8" s="17">
+      <c r="X8" s="11">
         <v>5</v>
       </c>
-      <c r="Y8" s="18" t="s">
+      <c r="Y8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="Z8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18">
+      <c r="Z8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="J9" s="21">
+      <c r="C9" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2023</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1200000</v>
+      </c>
+      <c r="H9" s="12">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="12">
         <v>1</v>
       </c>
-      <c r="P9" s="17">
+      <c r="L9" s="11">
         <v>6</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="M9" s="12">
+        <v>1537</v>
+      </c>
+      <c r="N9" s="12">
+        <v>327</v>
+      </c>
+      <c r="P9" s="11">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="12">
         <v>2</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="11">
         <v>6</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="U9" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="12">
         <v>2</v>
       </c>
-      <c r="X9" s="17">
+      <c r="X9" s="11">
         <v>6</v>
       </c>
-      <c r="Y9" s="18" t="s">
+      <c r="Y9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="Z9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18">
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="J10" s="21">
+      <c r="C10" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1373</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H10" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" s="12">
         <v>1</v>
       </c>
-      <c r="P10" s="17">
+      <c r="L10" s="11">
         <v>7</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="M10" s="12">
+        <v>1080</v>
+      </c>
+      <c r="N10" s="12">
+        <v>257</v>
+      </c>
+      <c r="P10" s="11">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="12">
         <v>2</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="X10" s="17">
+      <c r="T10" s="15">
         <v>7</v>
       </c>
-      <c r="Y10" s="18" t="s">
+      <c r="U10" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="V10" s="12">
+        <v>3</v>
+      </c>
+      <c r="X10" s="11">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18">
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="P11" s="17">
+      <c r="C11" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="12">
+        <v>147909</v>
+      </c>
+      <c r="G11" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H11" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="J11" s="12">
+        <v>2</v>
+      </c>
+      <c r="L11" s="11">
         <v>8</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="M11" s="12">
+        <v>119790</v>
+      </c>
+      <c r="N11" s="12">
+        <v>27225</v>
+      </c>
+      <c r="P11" s="11">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="12">
         <v>2</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="X11" s="17">
+      <c r="T11" s="11">
         <v>8</v>
       </c>
-      <c r="Y11" s="18" t="s">
+      <c r="U11" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="V11" s="12">
+        <v>3</v>
+      </c>
+      <c r="X11" s="11">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="Z11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18">
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="P12" s="17">
+      <c r="C12" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" s="12">
+        <v>68517</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H12" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="11">
         <v>9</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="M12" s="12">
+        <v>63092</v>
+      </c>
+      <c r="N12" s="12">
+        <v>14339</v>
+      </c>
+      <c r="P12" s="11">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="12">
         <v>2</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="X12" s="17">
+      <c r="T12" s="15">
         <v>9</v>
       </c>
-      <c r="Y12" s="18" t="s">
+      <c r="U12" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="V12" s="12">
+        <v>3</v>
+      </c>
+      <c r="X12" s="11">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="Z12" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="18"/>
-      <c r="AB12" s="18">
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="P13" s="17">
+      <c r="C13" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="12">
+        <v>56288</v>
+      </c>
+      <c r="G13" s="12">
+        <v>2300000</v>
+      </c>
+      <c r="H13" s="12">
+        <v>230000</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" s="12">
+        <v>2</v>
+      </c>
+      <c r="L13" s="11">
         <v>10</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="M13" s="12">
+        <v>39735</v>
+      </c>
+      <c r="N13" s="12">
+        <v>8830</v>
+      </c>
+      <c r="P13" s="11">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="12">
         <v>2</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="X13" s="17">
+      <c r="T13" s="11">
         <v>10</v>
       </c>
-      <c r="Y13" s="18" t="s">
+      <c r="U13" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="V13" s="12">
+        <v>4</v>
+      </c>
+      <c r="X13" s="11">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="12">
         <v>1</v>
       </c>
-      <c r="AA13" s="19" t="s">
+      <c r="AA13" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="AB13" s="18">
+      <c r="AB13" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="P14" s="17">
+      <c r="C14" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="12">
+        <v>11872</v>
+      </c>
+      <c r="G14" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H14" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="12">
+        <v>2</v>
+      </c>
+      <c r="L14" s="11">
         <v>11</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="M14" s="12">
+        <v>9016</v>
+      </c>
+      <c r="N14" s="12">
+        <v>2049</v>
+      </c>
+      <c r="P14" s="11">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="12">
         <v>2</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="X14" s="17">
+      <c r="T14" s="15">
         <v>11</v>
       </c>
-      <c r="Y14" s="18" t="s">
+      <c r="U14" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="V14" s="12">
+        <v>4</v>
+      </c>
+      <c r="X14" s="11">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="12">
         <v>1</v>
       </c>
-      <c r="AA14" s="19" t="s">
+      <c r="AA14" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="AB14" s="18">
+      <c r="AB14" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+    <row r="15" spans="2:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="P15" s="17">
+      <c r="C15" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F15" s="12">
+        <v>34714</v>
+      </c>
+      <c r="G15" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H15" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="J15" s="12">
+        <v>2</v>
+      </c>
+      <c r="L15" s="11">
         <v>12</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="M15" s="12">
+        <v>32325</v>
+      </c>
+      <c r="N15" s="12">
+        <v>7027</v>
+      </c>
+      <c r="P15" s="11">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="12">
         <v>2</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="X15" s="17">
+      <c r="T15" s="11">
         <v>12</v>
       </c>
-      <c r="Y15" s="18" t="s">
+      <c r="U15" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="V15" s="12">
+        <v>4</v>
+      </c>
+      <c r="X15" s="11">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="Z15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18">
+      <c r="Z15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+    <row r="16" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="X16" s="17">
+      <c r="C16" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" s="12">
+        <v>26759</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2300000</v>
+      </c>
+      <c r="H16" s="12">
+        <v>230000</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" s="12">
+        <v>2</v>
+      </c>
+      <c r="L16" s="11">
         <v>13</v>
       </c>
-      <c r="Y16" s="18" t="s">
+      <c r="M16" s="12">
+        <v>16869</v>
+      </c>
+      <c r="N16" s="12">
+        <v>3923</v>
+      </c>
+      <c r="P16" s="11">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>3</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T16" s="15">
+        <v>13</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="V16" s="12">
+        <v>5</v>
+      </c>
+      <c r="X16" s="11">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Z16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18">
+      <c r="Z16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
+    <row r="17" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
         <v>14</v>
       </c>
-      <c r="X17" s="17">
+      <c r="C17" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="F17" s="12">
+        <v>31225</v>
+      </c>
+      <c r="G17" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H17" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="12">
+        <v>2</v>
+      </c>
+      <c r="L17" s="11">
         <v>14</v>
       </c>
-      <c r="Y17" s="18" t="s">
+      <c r="M17" s="12">
+        <v>16871</v>
+      </c>
+      <c r="N17" s="12">
+        <v>3749</v>
+      </c>
+      <c r="P17" s="11">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>3</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="T17" s="11">
+        <v>14</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="V17" s="12">
+        <v>5</v>
+      </c>
+      <c r="X17" s="11">
+        <v>14</v>
+      </c>
+      <c r="Y17" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="Z17" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="18"/>
-      <c r="AB17" s="18">
+      <c r="Z17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+    <row r="18" spans="2:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="X18" s="17">
+      <c r="P18" s="11">
         <v>15</v>
       </c>
-      <c r="Y18" s="18" t="s">
+      <c r="Q18" s="12">
+        <v>3</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="T18" s="15">
+        <v>15</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="V18" s="12">
+        <v>5</v>
+      </c>
+      <c r="X18" s="11">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="Z18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18">
+      <c r="Z18" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
+    <row r="19" spans="2:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
         <v>16</v>
       </c>
-      <c r="X19" s="17">
+      <c r="P19" s="11">
         <v>16</v>
       </c>
-      <c r="Y19" s="18" t="s">
+      <c r="Q19" s="12">
+        <v>3</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="T19" s="11">
+        <v>16</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="V19" s="12">
+        <v>6</v>
+      </c>
+      <c r="X19" s="11">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="Z19" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="18"/>
-      <c r="AB19" s="18">
+      <c r="Z19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+    <row r="20" spans="2:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="X20" s="17">
+      <c r="P20" s="11">
         <v>17</v>
       </c>
-      <c r="Y20" s="18" t="s">
+      <c r="Q20" s="12">
+        <v>3</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="T20" s="11">
+        <v>17</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="V20" s="12">
+        <v>6</v>
+      </c>
+      <c r="X20" s="11">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="Z20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18">
+      <c r="Z20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="13">
+    <row r="21" spans="2:28" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
         <v>18</v>
       </c>
-      <c r="X21" s="17">
+      <c r="P21" s="11">
         <v>18</v>
       </c>
-      <c r="Y21" s="18" t="s">
+      <c r="Q21" s="12">
+        <v>3</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="T21" s="11">
+        <v>18</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="V21" s="12">
+        <v>6</v>
+      </c>
+      <c r="X21" s="11">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="Z21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18">
+      <c r="Z21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+    <row r="22" spans="2:28" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="X22" s="17">
+      <c r="P22" s="11">
         <v>19</v>
       </c>
-      <c r="Y22" s="18" t="s">
+      <c r="Q22" s="12">
+        <v>3</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="T22" s="11">
+        <v>19</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="V22" s="12">
+        <v>7</v>
+      </c>
+      <c r="X22" s="11">
+        <v>19</v>
+      </c>
+      <c r="Y22" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="Z22" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18">
+      <c r="Z22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+    <row r="23" spans="2:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>20</v>
       </c>
-      <c r="X23" s="17">
+      <c r="P23" s="11">
         <v>20</v>
       </c>
-      <c r="Y23" s="18" t="s">
+      <c r="Q23" s="12">
+        <v>4</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="T23" s="11">
+        <v>20</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="V23" s="12">
+        <v>7</v>
+      </c>
+      <c r="X23" s="11">
+        <v>20</v>
+      </c>
+      <c r="Y23" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Z23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18">
+      <c r="Z23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:28" ht="90" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+    <row r="24" spans="2:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>21</v>
       </c>
-      <c r="X24" s="17">
+      <c r="P24" s="11">
         <v>21</v>
       </c>
-      <c r="Y24" s="18" t="s">
+      <c r="Q24" s="12">
+        <v>4</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="T24" s="11">
+        <v>21</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="V24" s="12">
+        <v>7</v>
+      </c>
+      <c r="X24" s="11">
+        <v>21</v>
+      </c>
+      <c r="Y24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="Z24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18">
+      <c r="Z24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B25" s="13">
+    <row r="25" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
         <v>22</v>
       </c>
-      <c r="X25" s="17">
+      <c r="P25" s="11">
         <v>22</v>
       </c>
-      <c r="Y25" s="18" t="s">
+      <c r="Q25" s="12">
+        <v>4</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="T25" s="11">
+        <v>22</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="V25" s="12">
+        <v>8</v>
+      </c>
+      <c r="X25" s="11">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Z25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="18"/>
-      <c r="AB25" s="18">
+      <c r="Z25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+    <row r="26" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
         <v>23</v>
       </c>
-      <c r="X26" s="17">
+      <c r="P26" s="11">
         <v>23</v>
       </c>
-      <c r="Y26" s="18" t="s">
+      <c r="Q26" s="12">
+        <v>4</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="T26" s="11">
+        <v>23</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="V26" s="12">
+        <v>8</v>
+      </c>
+      <c r="X26" s="11">
+        <v>23</v>
+      </c>
+      <c r="Y26" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Z26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18">
+      <c r="Z26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="B27" s="13">
+    <row r="27" spans="2:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
         <v>24</v>
       </c>
-      <c r="X27" s="17">
+      <c r="P27" s="11">
         <v>24</v>
       </c>
-      <c r="Y27" s="18" t="s">
+      <c r="Q27" s="12">
+        <v>4</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="T27" s="11">
+        <v>24</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="V27" s="12">
+        <v>8</v>
+      </c>
+      <c r="X27" s="11">
+        <v>24</v>
+      </c>
+      <c r="Y27" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Z27" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="18"/>
-      <c r="AB27" s="18">
+      <c r="Z27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:28" ht="105" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+    <row r="28" spans="2:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
         <v>25</v>
       </c>
-      <c r="X28" s="17">
+      <c r="P28" s="11">
         <v>25</v>
       </c>
-      <c r="Y28" s="18" t="s">
+      <c r="Q28" s="12">
+        <v>4</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="T28" s="11">
+        <v>25</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="V28" s="12">
+        <v>9</v>
+      </c>
+      <c r="X28" s="11">
+        <v>25</v>
+      </c>
+      <c r="Y28" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Z28" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18">
+      <c r="Z28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B29" s="13">
+    <row r="29" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
         <v>26</v>
       </c>
-      <c r="X29" s="17">
+      <c r="P29" s="11">
         <v>26</v>
       </c>
-      <c r="Y29" s="18" t="s">
+      <c r="Q29" s="12">
+        <v>5</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="T29" s="11">
+        <v>26</v>
+      </c>
+      <c r="U29" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="V29" s="12">
+        <v>9</v>
+      </c>
+      <c r="X29" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y29" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="Z29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18">
+      <c r="Z29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+    <row r="30" spans="2:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
         <v>27</v>
       </c>
-      <c r="X30" s="17">
+      <c r="P30" s="11">
         <v>27</v>
       </c>
-      <c r="Y30" s="18" t="s">
+      <c r="Q30" s="12">
+        <v>5</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="T30" s="11">
+        <v>27</v>
+      </c>
+      <c r="U30" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="V30" s="12">
+        <v>9</v>
+      </c>
+      <c r="X30" s="11">
+        <v>27</v>
+      </c>
+      <c r="Y30" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="Z30" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18">
+      <c r="Z30" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="13">
+    <row r="31" spans="2:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
         <v>28</v>
       </c>
-      <c r="X31" s="17">
+      <c r="P31" s="11">
         <v>28</v>
       </c>
-      <c r="Y31" s="18" t="s">
+      <c r="Q31" s="12">
+        <v>5</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="T31" s="11">
+        <v>28</v>
+      </c>
+      <c r="U31" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="V31" s="12">
+        <v>10</v>
+      </c>
+      <c r="X31" s="11">
+        <v>28</v>
+      </c>
+      <c r="Y31" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="Z31" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="18"/>
-      <c r="AB31" s="18">
+      <c r="Z31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
+    <row r="32" spans="2:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
         <v>29</v>
       </c>
-      <c r="X32" s="17">
+      <c r="P32" s="11">
         <v>29</v>
       </c>
-      <c r="Y32" s="18" t="s">
+      <c r="Q32" s="12">
+        <v>5</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="T32" s="11">
+        <v>29</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="V32" s="12">
+        <v>10</v>
+      </c>
+      <c r="X32" s="11">
+        <v>29</v>
+      </c>
+      <c r="Y32" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="Z32" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18">
+      <c r="Z32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="B33" s="13">
+    <row r="33" spans="2:28" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
         <v>30</v>
       </c>
-      <c r="X33" s="17">
+      <c r="P33" s="11">
         <v>30</v>
       </c>
-      <c r="Y33" s="18" t="s">
+      <c r="Q33" s="12">
+        <v>6</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="T33" s="11">
+        <v>30</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="V33" s="12">
+        <v>10</v>
+      </c>
+      <c r="X33" s="11">
+        <v>30</v>
+      </c>
+      <c r="Y33" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="Z33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18">
+      <c r="Z33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="13">
+    <row r="34" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
         <v>31</v>
       </c>
-      <c r="X34" s="17">
+      <c r="P34" s="11">
         <v>31</v>
       </c>
-      <c r="Y34" s="18" t="s">
+      <c r="Q34" s="12">
+        <v>6</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="T34" s="11">
+        <v>31</v>
+      </c>
+      <c r="U34" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="V34" s="12">
+        <v>11</v>
+      </c>
+      <c r="X34" s="11">
+        <v>31</v>
+      </c>
+      <c r="Y34" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="Z34" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="18"/>
-      <c r="AB34" s="18">
+      <c r="Z34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B35" s="13">
+    <row r="35" spans="2:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B36" s="13">
+      <c r="P35" s="11">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>6</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="T35" s="11">
+        <v>32</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="V35" s="12">
+        <v>11</v>
+      </c>
+      <c r="X35" s="11">
+        <v>32</v>
+      </c>
+      <c r="Y35" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B37" s="13">
+      <c r="P36" s="11">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>6</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="T36" s="11">
+        <v>33</v>
+      </c>
+      <c r="U36" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="V36" s="12">
+        <v>11</v>
+      </c>
+      <c r="X36" s="11">
+        <v>33</v>
+      </c>
+      <c r="Y36" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B38" s="13">
+      <c r="P37" s="11">
+        <v>34</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>7</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="T37" s="11">
+        <v>34</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="V37" s="12">
+        <v>12</v>
+      </c>
+      <c r="X37" s="11">
+        <v>34</v>
+      </c>
+      <c r="Y37" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
         <v>35</v>
+      </c>
+      <c r="P38" s="11">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="12">
+        <v>7</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="T38" s="11">
+        <v>35</v>
+      </c>
+      <c r="U38" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="V38" s="12">
+        <v>12</v>
+      </c>
+      <c r="X38" s="11">
+        <v>35</v>
+      </c>
+      <c r="Y38" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="11">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>7</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="T39" s="11">
+        <v>36</v>
+      </c>
+      <c r="U39" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="V39" s="12">
+        <v>12</v>
+      </c>
+      <c r="X39" s="11">
+        <v>36</v>
+      </c>
+      <c r="Y39" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="11">
+        <v>37</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>7</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="T40" s="11">
+        <v>37</v>
+      </c>
+      <c r="U40" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="V40" s="12">
+        <v>13</v>
+      </c>
+      <c r="X40" s="11">
+        <v>37</v>
+      </c>
+      <c r="Y40" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z40" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="11">
+        <v>38</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>7</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="T41" s="11">
+        <v>38</v>
+      </c>
+      <c r="U41" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="V41" s="12">
+        <v>13</v>
+      </c>
+      <c r="X41" s="11">
+        <v>38</v>
+      </c>
+      <c r="Y41" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB41" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="11">
+        <v>39</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>7</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="T42" s="11">
+        <v>39</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="V42" s="12">
+        <v>13</v>
+      </c>
+      <c r="X42" s="11">
+        <v>39</v>
+      </c>
+      <c r="Y42" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="11">
+        <v>40</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>7</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="T43" s="11">
+        <v>40</v>
+      </c>
+      <c r="U43" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="V43" s="12">
+        <v>14</v>
+      </c>
+      <c r="X43" s="11">
+        <v>40</v>
+      </c>
+      <c r="Y43" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="11">
+        <v>41</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>7</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="T44" s="11">
+        <v>41</v>
+      </c>
+      <c r="U44" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="V44" s="12">
+        <v>14</v>
+      </c>
+      <c r="X44" s="11">
+        <v>41</v>
+      </c>
+      <c r="Y44" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z44" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB44" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="11">
+        <v>42</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>8</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="T45" s="11">
+        <v>42</v>
+      </c>
+      <c r="U45" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="V45" s="12">
+        <v>14</v>
+      </c>
+      <c r="X45" s="11">
+        <v>42</v>
+      </c>
+      <c r="Y45" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="11">
+        <v>43</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>8</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="X46" s="11">
+        <v>43</v>
+      </c>
+      <c r="Y46" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB46" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="11">
+        <v>44</v>
+      </c>
+      <c r="Q47" s="12">
+        <v>8</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="X47" s="11">
+        <v>44</v>
+      </c>
+      <c r="Y47" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="11">
+        <v>45</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>8</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="X48" s="11">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="16:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="11">
+        <v>46</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>9</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="X49" s="11">
+        <v>46</v>
+      </c>
+      <c r="Y49" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="16:28" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="11">
+        <v>47</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>9</v>
+      </c>
+      <c r="R50" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="X50" s="11">
+        <v>47</v>
+      </c>
+      <c r="Y50" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="16:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="11">
+        <v>48</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>9</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="X51" s="11">
+        <v>48</v>
+      </c>
+      <c r="Y51" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="16:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="11">
+        <v>49</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>9</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="X52" s="11">
+        <v>49</v>
+      </c>
+      <c r="Y52" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="16:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="11">
+        <v>50</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>10</v>
+      </c>
+      <c r="R53" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="X53" s="11">
+        <v>50</v>
+      </c>
+      <c r="Y53" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z53" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="16:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="11">
+        <v>51</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>10</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="X54" s="11">
+        <v>51</v>
+      </c>
+      <c r="Y54" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z54" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="16:28" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="11">
+        <v>52</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>10</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="X55" s="11">
+        <v>52</v>
+      </c>
+      <c r="Y55" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="16:28" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="11">
+        <v>53</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>10</v>
+      </c>
+      <c r="R56" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="X56" s="11">
+        <v>53</v>
+      </c>
+      <c r="Y56" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="Z56" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="16:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="11">
+        <v>54</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>10</v>
+      </c>
+      <c r="R57" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="X57" s="11">
+        <v>54</v>
+      </c>
+      <c r="Y57" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z57" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="16:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="11">
+        <v>55</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>10</v>
+      </c>
+      <c r="R58" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="X58" s="11">
+        <v>55</v>
+      </c>
+      <c r="Y58" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="16:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="11">
+        <v>56</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>10</v>
+      </c>
+      <c r="R59" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="X59" s="11">
+        <v>56</v>
+      </c>
+      <c r="Y59" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="16:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="11">
+        <v>57</v>
+      </c>
+      <c r="Q60" s="12">
+        <v>10</v>
+      </c>
+      <c r="R60" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="X60" s="11">
+        <v>57</v>
+      </c>
+      <c r="Y60" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z60" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="16:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="11">
+        <v>58</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>11</v>
+      </c>
+      <c r="R61" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="X61" s="11">
+        <v>58</v>
+      </c>
+      <c r="Y61" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="16:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P62" s="11">
+        <v>59</v>
+      </c>
+      <c r="Q62" s="12">
+        <v>11</v>
+      </c>
+      <c r="R62" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="X62" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y62" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="16:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="11">
+        <v>60</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>11</v>
+      </c>
+      <c r="R63" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="X63" s="11">
+        <v>60</v>
+      </c>
+      <c r="Y63" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="Z63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="16:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="11">
+        <v>61</v>
+      </c>
+      <c r="Q64" s="12">
+        <v>11</v>
+      </c>
+      <c r="R64" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="X64" s="11">
+        <v>61</v>
+      </c>
+      <c r="Y64" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="16:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P65" s="11">
+        <v>62</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>11</v>
+      </c>
+      <c r="R65" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="X65" s="11">
+        <v>62</v>
+      </c>
+      <c r="Y65" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z65" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="16:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P66" s="11">
+        <v>63</v>
+      </c>
+      <c r="Q66" s="12">
+        <v>11</v>
+      </c>
+      <c r="R66" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="X66" s="11">
+        <v>63</v>
+      </c>
+      <c r="Y66" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="16:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="11">
+        <v>64</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>12</v>
+      </c>
+      <c r="R67" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="X67" s="11">
+        <v>64</v>
+      </c>
+      <c r="Y67" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="Z67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="16:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P68" s="11">
+        <v>65</v>
+      </c>
+      <c r="Q68" s="12">
+        <v>12</v>
+      </c>
+      <c r="R68" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="X68" s="11">
+        <v>65</v>
+      </c>
+      <c r="Y68" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="16:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P69" s="11">
+        <v>66</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>12</v>
+      </c>
+      <c r="R69" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="X69" s="11">
+        <v>66</v>
+      </c>
+      <c r="Y69" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="16:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P70" s="11">
+        <v>67</v>
+      </c>
+      <c r="Q70" s="12">
+        <v>12</v>
+      </c>
+      <c r="R70" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="X70" s="11">
+        <v>67</v>
+      </c>
+      <c r="Y70" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="16:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P71" s="11">
+        <v>68</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>13</v>
+      </c>
+      <c r="R71" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="X71" s="11">
+        <v>68</v>
+      </c>
+      <c r="Y71" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z71" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="16:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P72" s="11">
+        <v>69</v>
+      </c>
+      <c r="Q72" s="12">
+        <v>13</v>
+      </c>
+      <c r="R72" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="X72" s="11">
+        <v>69</v>
+      </c>
+      <c r="Y72" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="16:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P73" s="11">
+        <v>70</v>
+      </c>
+      <c r="Q73" s="12">
+        <v>13</v>
+      </c>
+      <c r="R73" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="X73" s="11">
+        <v>70</v>
+      </c>
+      <c r="Y73" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="16:28" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P74" s="11">
+        <v>71</v>
+      </c>
+      <c r="Q74" s="12">
+        <v>13</v>
+      </c>
+      <c r="R74" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="X74" s="11">
+        <v>71</v>
+      </c>
+      <c r="Y74" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="16:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P75" s="11">
+        <v>72</v>
+      </c>
+      <c r="Q75" s="12">
+        <v>14</v>
+      </c>
+      <c r="R75" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="X75" s="11">
+        <v>72</v>
+      </c>
+      <c r="Y75" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z75" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="16:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P76" s="11">
+        <v>73</v>
+      </c>
+      <c r="Q76" s="12">
+        <v>14</v>
+      </c>
+      <c r="R76" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="X76" s="11">
+        <v>73</v>
+      </c>
+      <c r="Y76" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z76" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="16:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P77" s="11">
+        <v>74</v>
+      </c>
+      <c r="Q77" s="12">
+        <v>14</v>
+      </c>
+      <c r="R77" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="X77" s="11">
+        <v>74</v>
+      </c>
+      <c r="Y77" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z77" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="16:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P78" s="11">
+        <v>75</v>
+      </c>
+      <c r="Q78" s="12">
+        <v>14</v>
+      </c>
+      <c r="R78" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="X78" s="11">
+        <v>75</v>
+      </c>
+      <c r="Y78" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z78" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="16:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X79" s="11">
+        <v>76</v>
+      </c>
+      <c r="Y79" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z79" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="16:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X80" s="11">
+        <v>77</v>
+      </c>
+      <c r="Y80" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z80" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="24:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X81" s="11">
+        <v>78</v>
+      </c>
+      <c r="Y81" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z81" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="24:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X82" s="11">
+        <v>79</v>
+      </c>
+      <c r="Y82" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z82" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="24:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="X83" s="11">
+        <v>80</v>
+      </c>
+      <c r="Y83" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z83" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="24:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X84" s="11">
+        <v>81</v>
+      </c>
+      <c r="Y84" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z84" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X85" s="11">
+        <v>82</v>
+      </c>
+      <c r="Y85" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z85" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="24:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X86" s="11">
+        <v>83</v>
+      </c>
+      <c r="Y86" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z86" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X87" s="11">
+        <v>84</v>
+      </c>
+      <c r="Y87" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z87" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="24:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X88" s="11">
+        <v>85</v>
+      </c>
+      <c r="Y88" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="24:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X89" s="11">
+        <v>86</v>
+      </c>
+      <c r="Y89" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X90" s="11">
+        <v>87</v>
+      </c>
+      <c r="Y90" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X91" s="11">
+        <v>88</v>
+      </c>
+      <c r="Y91" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z91" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="24:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X92" s="11">
+        <v>89</v>
+      </c>
+      <c r="Y92" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X93" s="11">
+        <v>90</v>
+      </c>
+      <c r="Y93" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="24:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X94" s="11">
+        <v>91</v>
+      </c>
+      <c r="Y94" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="24:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X95" s="11">
+        <v>92</v>
+      </c>
+      <c r="Y95" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z95" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="24:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="X96" s="11">
+        <v>93</v>
+      </c>
+      <c r="Y96" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z96" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="24:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X97" s="11">
+        <v>94</v>
+      </c>
+      <c r="Y97" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z97" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X98" s="11">
+        <v>95</v>
+      </c>
+      <c r="Y98" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z98" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X99" s="11">
+        <v>96</v>
+      </c>
+      <c r="Y99" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z99" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="24:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X100" s="11">
+        <v>97</v>
+      </c>
+      <c r="Y100" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z100" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="24:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X101" s="11">
+        <v>98</v>
+      </c>
+      <c r="Y101" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z101" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X102" s="11">
+        <v>99</v>
+      </c>
+      <c r="Y102" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z102" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="24:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X103" s="11">
+        <v>100</v>
+      </c>
+      <c r="Y103" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z103" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X104" s="11">
+        <v>101</v>
+      </c>
+      <c r="Y104" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z104" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X105" s="11">
+        <v>102</v>
+      </c>
+      <c r="Y105" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z105" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" spans="24:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X106" s="11">
+        <v>103</v>
+      </c>
+      <c r="Y106" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z106" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="24:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X107" s="11">
+        <v>104</v>
+      </c>
+      <c r="Y107" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z107" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X108" s="11">
+        <v>105</v>
+      </c>
+      <c r="Y108" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z108" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="24:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X109" s="11">
+        <v>106</v>
+      </c>
+      <c r="Y109" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z109" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="24:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X110" s="11">
+        <v>107</v>
+      </c>
+      <c r="Y110" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z110" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="24:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X111" s="11">
+        <v>108</v>
+      </c>
+      <c r="Y111" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z111" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="24:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X112" s="11">
+        <v>109</v>
+      </c>
+      <c r="Y112" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z112" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X113" s="11">
+        <v>110</v>
+      </c>
+      <c r="Y113" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z113" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="24:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="X114" s="11">
+        <v>111</v>
+      </c>
+      <c r="Y114" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z114" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="24:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X115" s="11">
+        <v>112</v>
+      </c>
+      <c r="Y115" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z115" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="12"/>
+      <c r="AB115" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X116" s="11">
+        <v>113</v>
+      </c>
+      <c r="Y116" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z116" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="24:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X117" s="11">
+        <v>114</v>
+      </c>
+      <c r="Y117" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z117" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="12"/>
+      <c r="AB117" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X118" s="11">
+        <v>115</v>
+      </c>
+      <c r="Y118" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z118" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="12"/>
+      <c r="AB118" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="24:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X119" s="11">
+        <v>116</v>
+      </c>
+      <c r="Y119" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z119" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="12"/>
+      <c r="AB119" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X120" s="11">
+        <v>117</v>
+      </c>
+      <c r="Y120" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="Z120" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="12"/>
+      <c r="AB120" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X121" s="11">
+        <v>118</v>
+      </c>
+      <c r="Y121" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z121" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="12"/>
+      <c r="AB121" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X122" s="11">
+        <v>119</v>
+      </c>
+      <c r="Y122" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z122" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="12"/>
+      <c r="AB122" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="24:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X123" s="11">
+        <v>120</v>
+      </c>
+      <c r="Y123" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z123" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="12"/>
+      <c r="AB123" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="24:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X124" s="11">
+        <v>121</v>
+      </c>
+      <c r="Y124" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z124" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="125" spans="24:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X125" s="11">
+        <v>122</v>
+      </c>
+      <c r="Y125" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z125" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="12"/>
+      <c r="AB125" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="24:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X126" s="11">
+        <v>123</v>
+      </c>
+      <c r="Y126" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z126" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="12"/>
+      <c r="AB126" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="24:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X127" s="11">
+        <v>124</v>
+      </c>
+      <c r="Y127" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z127" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="12"/>
+      <c r="AB127" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="24:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X128" s="11">
+        <v>125</v>
+      </c>
+      <c r="Y128" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z128" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="12"/>
+      <c r="AB128" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X129" s="11">
+        <v>126</v>
+      </c>
+      <c r="Y129" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z129" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="12"/>
+      <c r="AB129" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X130" s="11">
+        <v>127</v>
+      </c>
+      <c r="Y130" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z130" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="12"/>
+      <c r="AB130" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="24:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X131" s="11">
+        <v>128</v>
+      </c>
+      <c r="Y131" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z131" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="12"/>
+      <c r="AB131" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="24:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X132" s="11">
+        <v>129</v>
+      </c>
+      <c r="Y132" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z132" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="12"/>
+      <c r="AB132" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X133" s="11">
+        <v>130</v>
+      </c>
+      <c r="Y133" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z133" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="12"/>
+      <c r="AB133" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X134" s="11">
+        <v>131</v>
+      </c>
+      <c r="Y134" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z134" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="12"/>
+      <c r="AB134" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="24:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X135" s="11">
+        <v>132</v>
+      </c>
+      <c r="Y135" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z135" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="12"/>
+      <c r="AB135" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X136" s="11">
+        <v>133</v>
+      </c>
+      <c r="Y136" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z136" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="12"/>
+      <c r="AB136" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="137" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X137" s="11">
+        <v>134</v>
+      </c>
+      <c r="Y137" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z137" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="12"/>
+      <c r="AB137" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="24:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X138" s="11">
+        <v>135</v>
+      </c>
+      <c r="Y138" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z138" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="12"/>
+      <c r="AB138" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="139" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X139" s="11">
+        <v>136</v>
+      </c>
+      <c r="Y139" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z139" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="12"/>
+      <c r="AB139" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="140" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X140" s="11">
+        <v>137</v>
+      </c>
+      <c r="Y140" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z140" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA140" s="12"/>
+      <c r="AB140" s="12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X141" s="11">
+        <v>138</v>
+      </c>
+      <c r="Y141" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="Z141" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA141" s="12"/>
+      <c r="AB141" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="24:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X142" s="11">
+        <v>139</v>
+      </c>
+      <c r="Y142" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z142" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="12"/>
+      <c r="AB142" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="24:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X143" s="11">
+        <v>140</v>
+      </c>
+      <c r="Y143" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z143" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="12"/>
+      <c r="AB143" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X144" s="11">
+        <v>141</v>
+      </c>
+      <c r="Y144" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z144" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="12"/>
+      <c r="AB144" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="24:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X145" s="11">
+        <v>142</v>
+      </c>
+      <c r="Y145" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z145" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="12"/>
+      <c r="AB145" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X146" s="11">
+        <v>143</v>
+      </c>
+      <c r="Y146" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z146" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="12"/>
+      <c r="AB146" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X147" s="11">
+        <v>144</v>
+      </c>
+      <c r="Y147" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z147" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="12"/>
+      <c r="AB147" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="24:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X148" s="11">
+        <v>145</v>
+      </c>
+      <c r="Y148" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z148" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="12"/>
+      <c r="AB148" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="149" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X149" s="11">
+        <v>146</v>
+      </c>
+      <c r="Y149" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z149" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB149" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="24:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X150" s="11">
+        <v>147</v>
+      </c>
+      <c r="Y150" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z150" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA150" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB150" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="24:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X151" s="11">
+        <v>148</v>
+      </c>
+      <c r="Y151" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z151" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA151" s="12"/>
+      <c r="AB151" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X152" s="11">
+        <v>149</v>
+      </c>
+      <c r="Y152" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z152" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA152" s="12"/>
+      <c r="AB152" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="153" spans="24:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X153" s="11">
+        <v>150</v>
+      </c>
+      <c r="Y153" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z153" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA153" s="12"/>
+      <c r="AB153" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="24:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X154" s="11">
+        <v>151</v>
+      </c>
+      <c r="Y154" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z154" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA154" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB154" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="24:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X155" s="11">
+        <v>152</v>
+      </c>
+      <c r="Y155" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z155" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA155" s="12"/>
+      <c r="AB155" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="156" spans="24:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X156" s="11">
+        <v>153</v>
+      </c>
+      <c r="Y156" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z156" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="12"/>
+      <c r="AB156" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="157" spans="24:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X157" s="11">
+        <v>154</v>
+      </c>
+      <c r="Y157" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z157" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA157" s="12"/>
+      <c r="AB157" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="158" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X158" s="11">
+        <v>155</v>
+      </c>
+      <c r="Y158" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z158" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA158" s="12"/>
+      <c r="AB158" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X159" s="11">
+        <v>156</v>
+      </c>
+      <c r="Y159" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z159" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA159" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB159" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="24:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X160" s="11">
+        <v>157</v>
+      </c>
+      <c r="Y160" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z160" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA160" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="AB160" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="161" spans="24:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X161" s="11">
+        <v>158</v>
+      </c>
+      <c r="Y161" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z161" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA161" s="12"/>
+      <c r="AB161" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="24:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X162" s="11">
+        <v>159</v>
+      </c>
+      <c r="Y162" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="Z162" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA162" s="12"/>
+      <c r="AB162" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="24:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X163" s="11">
+        <v>160</v>
+      </c>
+      <c r="Y163" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="Z163" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA163" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB163" s="12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="24:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X164" s="11">
+        <v>161</v>
+      </c>
+      <c r="Y164" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z164" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="12"/>
+      <c r="AB164" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="24:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X165" s="11">
+        <v>162</v>
+      </c>
+      <c r="Y165" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z165" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="12"/>
+      <c r="AB165" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X166" s="11">
+        <v>163</v>
+      </c>
+      <c r="Y166" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z166" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA166" s="12"/>
+      <c r="AB166" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="167" spans="24:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X167" s="11">
+        <v>164</v>
+      </c>
+      <c r="Y167" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z167" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="12"/>
+      <c r="AB167" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="168" spans="24:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X168" s="11">
+        <v>165</v>
+      </c>
+      <c r="Y168" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z168" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA168" s="12"/>
+      <c r="AB168" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X169" s="11">
+        <v>166</v>
+      </c>
+      <c r="Y169" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z169" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="12"/>
+      <c r="AB169" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="24:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X170" s="11">
+        <v>167</v>
+      </c>
+      <c r="Y170" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z170" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="12"/>
+      <c r="AB170" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="171" spans="24:28" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X171" s="11">
+        <v>168</v>
+      </c>
+      <c r="Y171" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="Z171" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="12"/>
+      <c r="AB171" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="24:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X172" s="11">
+        <v>169</v>
+      </c>
+      <c r="Y172" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z172" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="12"/>
+      <c r="AB172" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="24:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X173" s="11">
+        <v>170</v>
+      </c>
+      <c r="Y173" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="Z173" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA173" s="12"/>
+      <c r="AB173" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="24:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X174" s="11">
+        <v>171</v>
+      </c>
+      <c r="Y174" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z174" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA174" s="12"/>
+      <c r="AB174" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="24:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X175" s="11">
+        <v>172</v>
+      </c>
+      <c r="Y175" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="Z175" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="12"/>
+      <c r="AB175" s="12">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2957,8 +7072,16 @@
     <hyperlink ref="AA6" r:id="rId3" xr:uid="{AA92E776-168A-4E42-BFFC-47436773BEFC}"/>
     <hyperlink ref="AA13" r:id="rId4" xr:uid="{6771B219-73C0-4B53-80E3-090EC5985F3D}"/>
     <hyperlink ref="AA14" r:id="rId5" xr:uid="{F4613435-F4C9-4F3A-A814-25922ACA8A11}"/>
+    <hyperlink ref="AA41" r:id="rId6" xr:uid="{DF4EE993-7F3C-44E5-A52B-B1EC0CB969FA}"/>
+    <hyperlink ref="AA44" r:id="rId7" xr:uid="{AAA68218-5D94-424B-B961-EC7A9FE6CEA8}"/>
+    <hyperlink ref="AA46" r:id="rId8" xr:uid="{C597BB98-528E-44C7-AEE1-8015B71277DB}"/>
+    <hyperlink ref="AA150" r:id="rId9" xr:uid="{91F1DFEC-2DCE-4F59-879F-143B2D4206C6}"/>
+    <hyperlink ref="AA154" r:id="rId10" xr:uid="{36C1D5B1-7C05-464F-8A29-2059A2BEFC97}"/>
+    <hyperlink ref="AA159" r:id="rId11" xr:uid="{09B3AFBE-DE27-488E-A91D-D1578445E96A}"/>
+    <hyperlink ref="AA160" r:id="rId12" xr:uid="{2118A7E9-D885-4ED6-AFDA-36BA34DD2E91}"/>
+    <hyperlink ref="AA163" r:id="rId13" xr:uid="{86390C6A-1394-4381-834A-CD9BEBE6A45E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/MobileRawData.xlsx
+++ b/MobileRawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhkh\Desktop\Programming\Web_Foundation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646E7CAC-2175-4E4F-BF2F-5F41AEAF1415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5DAD1E-CB8B-44B0-BDBC-DA76937D8302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="426">
   <si>
     <t>CategoryID</t>
   </si>
@@ -1223,13 +1223,94 @@
   </si>
   <si>
     <t>Take a look at XML Code!</t>
+  </si>
+  <si>
+    <t>The Complete JavaScript Course 2020: From Zero to Expert!</t>
+  </si>
+  <si>
+    <t>The modern JavaScript course for everyone! Master JavaScript with projects, challenges and theory. Many courses in one!</t>
+  </si>
+  <si>
+    <t>11/2021</t>
+  </si>
+  <si>
+    <t>images/courses/15/main.jpg</t>
+  </si>
+  <si>
+    <t>Become an advanced, confident, and modern JavaScript developer from scratch</t>
+  </si>
+  <si>
+    <t>Build 6 beautiful real-world projects for your portfolio (not boring toy apps)</t>
+  </si>
+  <si>
+    <t>Become job-ready by understanding how JavaScript really works behind the scenes</t>
+  </si>
+  <si>
+    <t>How to think and work like a developer: problem-solving, researching, workflows</t>
+  </si>
+  <si>
+    <t>Welcome, Welcome, Welcome</t>
+  </si>
+  <si>
+    <t>JS Fundamental - Part 1</t>
+  </si>
+  <si>
+    <t>JS Fundamental - Part 2</t>
+  </si>
+  <si>
+    <t>Watch Before You Start!</t>
+  </si>
+  <si>
+    <t>Read Before You Start!</t>
+  </si>
+  <si>
+    <t>Migration Guide to v2 + Old Course</t>
+  </si>
+  <si>
+    <t>Section Intro</t>
+  </si>
+  <si>
+    <t>Hello World!</t>
+  </si>
+  <si>
+    <t>A Brief Introduction to JavaScript</t>
+  </si>
+  <si>
+    <t>Activating Strict Mode</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>JavaScript: Understanding the Weird Parts</t>
+  </si>
+  <si>
+    <t>images/courses/16/main.jpg</t>
+  </si>
+  <si>
+    <t>An advanced JavaScript course for everyone! Scope, closures, prototypes, 'this', build your own framework, and more.</t>
+  </si>
+  <si>
+    <t>9/2020</t>
+  </si>
+  <si>
+    <t>Grasp how Javascript works and it's fundamental concepts</t>
+  </si>
+  <si>
+    <t>Write solid, good Javascript code</t>
+  </si>
+  <si>
+    <t>Understand advanced concepts such as closures, prototypal inheritance, IIFEs, and much more.</t>
+  </si>
+  <si>
+    <t>Drastically improve your ability to debug problems in Javascript.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1280,6 +1361,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1413,6 +1500,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1430,9 +1520,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1717,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1742,27 +1829,27 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="J2" s="18" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="J2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="M2" s="20" t="s">
+      <c r="K2" s="20"/>
+      <c r="M2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="20"/>
-      <c r="P2" s="17" t="s">
+      <c r="N2" s="21"/>
+      <c r="P2" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="17"/>
+      <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
@@ -2693,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D920D02-196A-4EDD-98D4-DB014EAEA577}">
-  <dimension ref="B2:AB175"/>
+  <dimension ref="B2:AB184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y173" sqref="Y173"/>
+    <sheetView tabSelected="1" topLeftCell="F76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P83" sqref="P83:R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2728,39 +2815,39 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="L2" s="22" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="L2" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="T2" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="X2" s="22" t="s">
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="X2" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
     </row>
     <row r="3" spans="2:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
@@ -3809,9 +3896,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+    <row r="18" spans="2:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
         <v>15</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F18" s="12">
+        <v>384225</v>
+      </c>
+      <c r="G18" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H18" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="J18" s="12">
+        <v>3</v>
+      </c>
+      <c r="L18" s="11">
+        <v>15</v>
+      </c>
+      <c r="M18" s="12">
+        <v>430116</v>
+      </c>
+      <c r="N18" s="12">
+        <v>91514</v>
       </c>
       <c r="P18" s="11">
         <v>15</v>
@@ -3846,8 +3966,41 @@
       </c>
     </row>
     <row r="19" spans="2:28" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+      <c r="B19" s="11">
         <v>16</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="F19" s="12">
+        <v>155488</v>
+      </c>
+      <c r="G19" s="12">
+        <v>3000000</v>
+      </c>
+      <c r="H19" s="12">
+        <v>300000</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="J19" s="12">
+        <v>3</v>
+      </c>
+      <c r="L19" s="11">
+        <v>16</v>
+      </c>
+      <c r="M19" s="12">
+        <v>187587</v>
+      </c>
+      <c r="N19" s="12">
+        <v>39912</v>
       </c>
       <c r="P19" s="11">
         <v>16</v>
@@ -3885,6 +4038,9 @@
       <c r="B20" s="7">
         <v>17</v>
       </c>
+      <c r="J20" s="6">
+        <v>3</v>
+      </c>
       <c r="P20" s="11">
         <v>17</v>
       </c>
@@ -3921,6 +4077,9 @@
       <c r="B21" s="7">
         <v>18</v>
       </c>
+      <c r="J21" s="6">
+        <v>3</v>
+      </c>
       <c r="P21" s="11">
         <v>18</v>
       </c>
@@ -3957,6 +4116,9 @@
       <c r="B22" s="7">
         <v>19</v>
       </c>
+      <c r="J22" s="6">
+        <v>3</v>
+      </c>
       <c r="P22" s="11">
         <v>19</v>
       </c>
@@ -3993,6 +4155,9 @@
       <c r="B23" s="7">
         <v>20</v>
       </c>
+      <c r="J23" s="6">
+        <v>3</v>
+      </c>
       <c r="P23" s="11">
         <v>20</v>
       </c>
@@ -4029,6 +4194,9 @@
       <c r="B24" s="7">
         <v>21</v>
       </c>
+      <c r="J24" s="6">
+        <v>3</v>
+      </c>
       <c r="P24" s="11">
         <v>21</v>
       </c>
@@ -4810,6 +4978,15 @@
       <c r="R46" s="12" t="s">
         <v>270</v>
       </c>
+      <c r="T46" s="11">
+        <v>43</v>
+      </c>
+      <c r="U46" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="V46" s="12">
+        <v>15</v>
+      </c>
       <c r="X46" s="11">
         <v>43</v>
       </c>
@@ -4836,6 +5013,15 @@
       <c r="R47" s="12" t="s">
         <v>271</v>
       </c>
+      <c r="T47" s="11">
+        <v>44</v>
+      </c>
+      <c r="U47" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="V47" s="12">
+        <v>15</v>
+      </c>
       <c r="X47" s="11">
         <v>44</v>
       </c>
@@ -4860,6 +5046,15 @@
       <c r="R48" s="12" t="s">
         <v>272</v>
       </c>
+      <c r="T48" s="11">
+        <v>45</v>
+      </c>
+      <c r="U48" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="V48" s="12">
+        <v>15</v>
+      </c>
       <c r="X48" s="11">
         <v>45</v>
       </c>
@@ -5595,6 +5790,15 @@
       </c>
     </row>
     <row r="79" spans="16:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P79" s="11">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="12">
+        <v>15</v>
+      </c>
+      <c r="R79" s="12" t="s">
+        <v>403</v>
+      </c>
       <c r="X79" s="11">
         <v>76</v>
       </c>
@@ -5610,6 +5814,15 @@
       </c>
     </row>
     <row r="80" spans="16:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="11">
+        <v>77</v>
+      </c>
+      <c r="Q80" s="12">
+        <v>15</v>
+      </c>
+      <c r="R80" s="12" t="s">
+        <v>404</v>
+      </c>
       <c r="X80" s="11">
         <v>77</v>
       </c>
@@ -5624,7 +5837,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="24:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="16:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P81" s="11">
+        <v>78</v>
+      </c>
+      <c r="Q81" s="12">
+        <v>15</v>
+      </c>
+      <c r="R81" s="12" t="s">
+        <v>405</v>
+      </c>
       <c r="X81" s="11">
         <v>78</v>
       </c>
@@ -5639,7 +5861,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="24:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="16:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P82" s="11">
+        <v>79</v>
+      </c>
+      <c r="Q82" s="12">
+        <v>15</v>
+      </c>
+      <c r="R82" s="12" t="s">
+        <v>406</v>
+      </c>
       <c r="X82" s="11">
         <v>79</v>
       </c>
@@ -5654,7 +5885,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="24:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="16:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P83" s="11">
+        <v>80</v>
+      </c>
+      <c r="Q83" s="12">
+        <v>16</v>
+      </c>
+      <c r="R83" s="12" t="s">
+        <v>422</v>
+      </c>
       <c r="X83" s="11">
         <v>80</v>
       </c>
@@ -5669,7 +5909,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="24:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="16:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P84" s="11">
+        <v>81</v>
+      </c>
+      <c r="Q84" s="12">
+        <v>16</v>
+      </c>
+      <c r="R84" s="12" t="s">
+        <v>423</v>
+      </c>
       <c r="X84" s="11">
         <v>81</v>
       </c>
@@ -5684,7 +5933,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="24:28" x14ac:dyDescent="0.25">
+    <row r="85" spans="16:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P85" s="11">
+        <v>82</v>
+      </c>
+      <c r="Q85" s="12">
+        <v>16</v>
+      </c>
+      <c r="R85" s="12" t="s">
+        <v>424</v>
+      </c>
       <c r="X85" s="11">
         <v>82</v>
       </c>
@@ -5699,7 +5957,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="24:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="16:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P86" s="11">
+        <v>83</v>
+      </c>
+      <c r="Q86" s="12">
+        <v>16</v>
+      </c>
+      <c r="R86" s="12" t="s">
+        <v>425</v>
+      </c>
       <c r="X86" s="11">
         <v>83</v>
       </c>
@@ -5714,7 +5981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="24:28" x14ac:dyDescent="0.25">
+    <row r="87" spans="16:28" x14ac:dyDescent="0.25">
       <c r="X87" s="11">
         <v>84</v>
       </c>
@@ -5729,7 +5996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="24:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="16:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X88" s="11">
         <v>85</v>
       </c>
@@ -5744,7 +6011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="24:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="16:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X89" s="11">
         <v>86</v>
       </c>
@@ -5759,7 +6026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="16:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X90" s="11">
         <v>87</v>
       </c>
@@ -5774,7 +6041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="24:28" x14ac:dyDescent="0.25">
+    <row r="91" spans="16:28" x14ac:dyDescent="0.25">
       <c r="X91" s="11">
         <v>88</v>
       </c>
@@ -5789,7 +6056,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="24:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="16:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X92" s="11">
         <v>89</v>
       </c>
@@ -5804,7 +6071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="24:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="16:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X93" s="11">
         <v>90</v>
       </c>
@@ -5819,7 +6086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="24:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="16:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X94" s="11">
         <v>91</v>
       </c>
@@ -5834,7 +6101,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="24:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X95" s="11">
         <v>92</v>
       </c>
@@ -5849,7 +6116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="24:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="16:28" ht="30" x14ac:dyDescent="0.25">
       <c r="X96" s="11">
         <v>93</v>
       </c>
@@ -6651,7 +6918,7 @@
       <c r="Y149" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="Z149" s="23">
+      <c r="Z149" s="17">
         <v>0</v>
       </c>
       <c r="AB149" s="6">
@@ -7056,6 +7323,141 @@
       <c r="AA175" s="12"/>
       <c r="AB175" s="12">
         <v>42</v>
+      </c>
+    </row>
+    <row r="176" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X176" s="11">
+        <v>173</v>
+      </c>
+      <c r="Y176" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z176" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="12"/>
+      <c r="AB176" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="177" spans="24:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X177" s="11">
+        <v>174</v>
+      </c>
+      <c r="Y177" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z177" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA177" s="12"/>
+      <c r="AB177" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="178" spans="24:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X178" s="11">
+        <v>175</v>
+      </c>
+      <c r="Y178" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z178" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA178" s="12"/>
+      <c r="AB178" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="179" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X179" s="11">
+        <v>176</v>
+      </c>
+      <c r="Y179" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z179" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA179" s="12"/>
+      <c r="AB179" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X180" s="11">
+        <v>177</v>
+      </c>
+      <c r="Y180" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z180" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="12"/>
+      <c r="AB180" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="24:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X181" s="11">
+        <v>178</v>
+      </c>
+      <c r="Y181" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z181" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA181" s="12"/>
+      <c r="AB181" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X182" s="11">
+        <v>179</v>
+      </c>
+      <c r="Y182" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z182" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA182" s="12"/>
+      <c r="AB182" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="183" spans="24:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X183" s="11">
+        <v>180</v>
+      </c>
+      <c r="Y183" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z183" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA183" s="12"/>
+      <c r="AB183" s="12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="184" spans="24:28" x14ac:dyDescent="0.25">
+      <c r="X184" s="11">
+        <v>181</v>
+      </c>
+      <c r="Y184" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z184" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA184" s="12"/>
+      <c r="AB184" s="12">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -7066,6 +7468,7 @@
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="X2:AB2"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AA4" r:id="rId1" xr:uid="{1AE1B263-0BD4-4DB4-A826-E6E25D6CFFC3}"/>
     <hyperlink ref="AA5" r:id="rId2" xr:uid="{CA6327CF-DE21-4C1E-A2B6-43B80AB62FB1}"/>
